--- a/template-public.xlsx
+++ b/template-public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Timestamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F9F89-5C63-42ED-88C8-D527A61E7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9404D4F-3E3B-4469-864C-C22B7DD2632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="596">
   <si>
     <t>60001001</t>
   </si>
@@ -1857,6 +1857,9 @@
   </si>
   <si>
     <t>สาย (นาที)</t>
+  </si>
+  <si>
+    <t>บวช คลอด</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2014,7 @@
       <charset val="222"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2081,6 +2084,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,7 +2240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2576,46 +2585,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2645,23 +2618,65 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3018,109 +3033,109 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="143" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="143" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="143" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="K2" s="144"/>
-      <c r="L2" s="143" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="120" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="143" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="143" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="143" t="s">
+      <c r="Q2" s="121"/>
+      <c r="R2" s="120" t="s">
         <v>260</v>
       </c>
-      <c r="S2" s="144"/>
-      <c r="T2" s="143" t="s">
+      <c r="S2" s="121"/>
+      <c r="T2" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="U2" s="144"/>
-      <c r="V2" s="143" t="s">
+      <c r="U2" s="121"/>
+      <c r="V2" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="W2" s="144"/>
-      <c r="X2" s="143" t="s">
+      <c r="W2" s="121"/>
+      <c r="X2" s="120" t="s">
         <v>263</v>
       </c>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="143" t="s">
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="120" t="s">
         <v>264</v>
       </c>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="143" t="s">
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="120" t="s">
         <v>265</v>
       </c>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="143" t="s">
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="143" t="s">
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="134" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134" t="s">
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122" t="s">
         <v>269</v>
       </c>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134" t="s">
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134" t="s">
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134" t="s">
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134" t="s">
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="135" t="s">
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="AU2" s="137" t="s">
+      <c r="AU2" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="139"/>
-      <c r="BA2" s="140" t="s">
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="BB2" s="141"/>
-      <c r="BC2" s="141"/>
-      <c r="BD2" s="141"/>
-      <c r="BE2" s="141"/>
-      <c r="BF2" s="142"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="130"/>
     </row>
     <row r="3" spans="1:58" s="26" customFormat="1" ht="27.75" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -3258,7 +3273,7 @@
       <c r="AS3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AT3" s="136"/>
+      <c r="AT3" s="124"/>
       <c r="AU3" s="23" t="s">
         <v>121</v>
       </c>
@@ -3408,10 +3423,10 @@
       <c r="AK4" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AL4" s="121" t="s">
+      <c r="AL4" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AM4" s="122"/>
+      <c r="AM4" s="132"/>
       <c r="AN4" s="31" t="s">
         <v>293</v>
       </c>
@@ -3618,10 +3633,10 @@
       <c r="G6" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="122"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="30" t="s">
         <v>289</v>
       </c>
@@ -3682,10 +3697,10 @@
       <c r="AC6" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="AD6" s="121" t="s">
+      <c r="AD6" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AE6" s="122"/>
+      <c r="AE6" s="132"/>
       <c r="AF6" s="30" t="s">
         <v>274</v>
       </c>
@@ -4459,10 +4474,10 @@
       <c r="AK11" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="AL11" s="121" t="s">
+      <c r="AL11" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AM11" s="122"/>
+      <c r="AM11" s="132"/>
       <c r="AN11" s="31" t="s">
         <v>289</v>
       </c>
@@ -4584,10 +4599,10 @@
       <c r="AC12" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="AD12" s="121" t="s">
+      <c r="AD12" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AE12" s="122"/>
+      <c r="AE12" s="132"/>
       <c r="AF12" s="30" t="s">
         <v>276</v>
       </c>
@@ -4667,14 +4682,14 @@
       <c r="G13" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="121" t="s">
+      <c r="I13" s="132"/>
+      <c r="J13" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="122"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="35" t="s">
         <v>296</v>
       </c>
@@ -4687,10 +4702,10 @@
       <c r="O13" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="P13" s="121" t="s">
+      <c r="P13" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="Q13" s="122"/>
+      <c r="Q13" s="132"/>
       <c r="R13" s="32" t="s">
         <v>296</v>
       </c>
@@ -4703,28 +4718,28 @@
       <c r="U13" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="V13" s="121" t="s">
+      <c r="V13" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="W13" s="122"/>
+      <c r="W13" s="132"/>
       <c r="X13" s="32" t="s">
         <v>311</v>
       </c>
       <c r="Y13" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="Z13" s="121" t="s">
+      <c r="Z13" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="121" t="s">
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="121" t="s">
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="AE13" s="122"/>
+      <c r="AE13" s="132"/>
       <c r="AF13" s="35" t="s">
         <v>320</v>
       </c>
@@ -5408,10 +5423,10 @@
       <c r="G18" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="121" t="s">
+      <c r="H18" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="122"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="30" t="s">
         <v>280</v>
       </c>
@@ -5702,24 +5717,24 @@
       <c r="E20" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="121" t="s">
+      <c r="G20" s="132"/>
+      <c r="H20" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="122"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="30" t="s">
         <v>404</v>
       </c>
       <c r="K20" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="L20" s="121" t="s">
+      <c r="L20" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="122"/>
+      <c r="M20" s="132"/>
       <c r="N20" s="30" t="s">
         <v>443</v>
       </c>
@@ -5792,10 +5807,10 @@
       <c r="AK20" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="AL20" s="121" t="s">
+      <c r="AL20" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AM20" s="122"/>
+      <c r="AM20" s="132"/>
       <c r="AN20" s="31" t="s">
         <v>343</v>
       </c>
@@ -6068,10 +6083,10 @@
       <c r="AC22" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="AD22" s="121" t="s">
+      <c r="AD22" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AE22" s="122"/>
+      <c r="AE22" s="132"/>
       <c r="AF22" s="30" t="s">
         <v>444</v>
       </c>
@@ -6241,10 +6256,10 @@
       <c r="AK23" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AL23" s="121" t="s">
+      <c r="AL23" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AM23" s="122"/>
+      <c r="AM23" s="132"/>
       <c r="AN23" s="32" t="s">
         <v>303</v>
       </c>
@@ -6354,10 +6369,10 @@
       <c r="Y24" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="Z24" s="121" t="s">
+      <c r="Z24" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AA24" s="122"/>
+      <c r="AA24" s="132"/>
       <c r="AB24" s="35" t="s">
         <v>159</v>
       </c>
@@ -6509,10 +6524,10 @@
       <c r="AA25" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="AB25" s="121" t="s">
+      <c r="AB25" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AC25" s="122"/>
+      <c r="AC25" s="132"/>
       <c r="AD25" s="31" t="s">
         <v>351</v>
       </c>
@@ -6932,20 +6947,20 @@
       <c r="S28" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="T28" s="121" t="s">
+      <c r="T28" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="U28" s="122"/>
+      <c r="U28" s="132"/>
       <c r="V28" s="30" t="s">
         <v>443</v>
       </c>
       <c r="W28" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="X28" s="121" t="s">
+      <c r="X28" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="Y28" s="122"/>
+      <c r="Y28" s="132"/>
       <c r="Z28" s="30" t="s">
         <v>341</v>
       </c>
@@ -6970,10 +6985,10 @@
       <c r="AG28" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="AH28" s="124" t="s">
+      <c r="AH28" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="AI28" s="124"/>
+      <c r="AI28" s="133"/>
       <c r="AJ28" s="30" t="s">
         <v>338</v>
       </c>
@@ -7047,10 +7062,10 @@
       <c r="I29" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="J29" s="121" t="s">
+      <c r="J29" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="122"/>
+      <c r="K29" s="132"/>
       <c r="L29" s="30" t="s">
         <v>321</v>
       </c>
@@ -7202,14 +7217,14 @@
       <c r="K30" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="L30" s="124" t="s">
+      <c r="L30" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124" t="s">
+      <c r="M30" s="133"/>
+      <c r="N30" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="O30" s="124"/>
+      <c r="O30" s="133"/>
       <c r="P30" s="32" t="s">
         <v>435</v>
       </c>
@@ -7391,24 +7406,24 @@
       <c r="Y31" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="Z31" s="121" t="s">
+      <c r="Z31" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="121" t="s">
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="AC31" s="122"/>
+      <c r="AC31" s="132"/>
       <c r="AD31" s="32" t="s">
         <v>108</v>
       </c>
       <c r="AE31" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="AF31" s="121" t="s">
+      <c r="AF31" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="AG31" s="122"/>
+      <c r="AG31" s="132"/>
       <c r="AH31" s="35" t="s">
         <v>487</v>
       </c>
@@ -7468,10 +7483,10 @@
       <c r="C32" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="122"/>
+      <c r="E32" s="132"/>
       <c r="F32" s="31" t="s">
         <v>286</v>
       </c>
@@ -7520,14 +7535,14 @@
       <c r="U32" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="V32" s="121" t="s">
+      <c r="V32" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="W32" s="122"/>
-      <c r="X32" s="121" t="s">
+      <c r="W32" s="132"/>
+      <c r="X32" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="Y32" s="122"/>
+      <c r="Y32" s="132"/>
       <c r="Z32" s="30" t="s">
         <v>324</v>
       </c>
@@ -7564,10 +7579,10 @@
       <c r="AK32" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AL32" s="121" t="s">
+      <c r="AL32" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="AM32" s="122"/>
+      <c r="AM32" s="132"/>
       <c r="AN32" s="31" t="s">
         <v>284</v>
       </c>
@@ -7967,10 +7982,10 @@
       <c r="U35" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="V35" s="121" t="s">
+      <c r="V35" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="W35" s="122"/>
+      <c r="W35" s="132"/>
       <c r="X35" s="35" t="s">
         <v>376</v>
       </c>
@@ -8382,10 +8397,10 @@
       <c r="I38" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="J38" s="121" t="s">
+      <c r="J38" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="K38" s="122"/>
+      <c r="K38" s="132"/>
       <c r="L38" s="30" t="s">
         <v>274</v>
       </c>
@@ -8428,10 +8443,10 @@
       <c r="Y38" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="Z38" s="121" t="s">
+      <c r="Z38" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AA38" s="122"/>
+      <c r="AA38" s="132"/>
       <c r="AB38" s="35" t="s">
         <v>320</v>
       </c>
@@ -8468,14 +8483,14 @@
       <c r="AM38" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AN38" s="121" t="s">
+      <c r="AN38" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AO38" s="122"/>
-      <c r="AP38" s="121" t="s">
+      <c r="AO38" s="132"/>
+      <c r="AP38" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AQ38" s="122"/>
+      <c r="AQ38" s="132"/>
       <c r="AR38" s="35" t="s">
         <v>311</v>
       </c>
@@ -8549,10 +8564,10 @@
       <c r="Q39" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="R39" s="121" t="s">
+      <c r="R39" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="S39" s="122"/>
+      <c r="S39" s="132"/>
       <c r="T39" s="35" t="s">
         <v>533</v>
       </c>
@@ -8565,10 +8580,10 @@
       <c r="W39" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="X39" s="121" t="s">
+      <c r="X39" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="Y39" s="122"/>
+      <c r="Y39" s="132"/>
       <c r="Z39" s="35" t="s">
         <v>534</v>
       </c>
@@ -8672,10 +8687,10 @@
       <c r="I40" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="J40" s="121" t="s">
+      <c r="J40" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="K40" s="122"/>
+      <c r="K40" s="132"/>
       <c r="L40" s="30" t="s">
         <v>404</v>
       </c>
@@ -8706,14 +8721,14 @@
       <c r="U40" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="V40" s="121" t="s">
+      <c r="V40" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="W40" s="122"/>
-      <c r="X40" s="121" t="s">
+      <c r="W40" s="132"/>
+      <c r="X40" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="Y40" s="122"/>
+      <c r="Y40" s="132"/>
       <c r="Z40" s="30" t="s">
         <v>339</v>
       </c>
@@ -8805,14 +8820,14 @@
       <c r="E41" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="121" t="s">
+      <c r="F41" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="122"/>
-      <c r="H41" s="121" t="s">
+      <c r="G41" s="132"/>
+      <c r="H41" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="122"/>
+      <c r="I41" s="132"/>
       <c r="J41" s="30" t="s">
         <v>283</v>
       </c>
@@ -8879,10 +8894,10 @@
       <c r="AE41" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="AF41" s="121" t="s">
+      <c r="AF41" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AG41" s="122"/>
+      <c r="AG41" s="132"/>
       <c r="AH41" s="35" t="s">
         <v>320</v>
       </c>
@@ -9143,10 +9158,10 @@
       <c r="S43" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="T43" s="121" t="s">
+      <c r="T43" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="U43" s="122"/>
+      <c r="U43" s="132"/>
       <c r="V43" s="30" t="s">
         <v>294</v>
       </c>
@@ -9491,10 +9506,10 @@
       <c r="AI45" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="AJ45" s="121" t="s">
+      <c r="AJ45" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AK45" s="122"/>
+      <c r="AK45" s="132"/>
       <c r="AL45" s="30" t="s">
         <v>286</v>
       </c>
@@ -9544,14 +9559,14 @@
       <c r="C46" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="122"/>
-      <c r="F46" s="121" t="s">
+      <c r="E46" s="132"/>
+      <c r="F46" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="122"/>
+      <c r="G46" s="132"/>
       <c r="H46" s="30" t="s">
         <v>341</v>
       </c>
@@ -9763,10 +9778,10 @@
       <c r="AA47" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="AB47" s="124" t="s">
+      <c r="AB47" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="AC47" s="124"/>
+      <c r="AC47" s="133"/>
       <c r="AD47" s="31" t="s">
         <v>293</v>
       </c>
@@ -9997,10 +10012,10 @@
       <c r="E49" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="F49" s="121" t="s">
+      <c r="F49" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="G49" s="122"/>
+      <c r="G49" s="132"/>
       <c r="H49" s="30" t="s">
         <v>276</v>
       </c>
@@ -10520,10 +10535,10 @@
       <c r="AC52" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="AD52" s="124" t="s">
+      <c r="AD52" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="AE52" s="124"/>
+      <c r="AE52" s="133"/>
       <c r="AF52" s="30" t="s">
         <v>456</v>
       </c>
@@ -10941,10 +10956,10 @@
       <c r="S55" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="T55" s="121" t="s">
+      <c r="T55" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="U55" s="122"/>
+      <c r="U55" s="132"/>
       <c r="V55" s="30" t="s">
         <v>342</v>
       </c>
@@ -11140,50 +11155,50 @@
       <c r="A57" s="55"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="132"/>
-      <c r="Q57" s="133"/>
-      <c r="R57" s="132"/>
-      <c r="S57" s="133"/>
-      <c r="T57" s="132"/>
-      <c r="U57" s="133"/>
-      <c r="V57" s="132"/>
-      <c r="W57" s="133"/>
-      <c r="X57" s="132"/>
-      <c r="Y57" s="133"/>
-      <c r="Z57" s="132"/>
-      <c r="AA57" s="133"/>
-      <c r="AB57" s="132"/>
-      <c r="AC57" s="133"/>
-      <c r="AD57" s="132"/>
-      <c r="AE57" s="133"/>
-      <c r="AF57" s="132"/>
-      <c r="AG57" s="133"/>
-      <c r="AH57" s="123"/>
-      <c r="AI57" s="123"/>
-      <c r="AJ57" s="123"/>
-      <c r="AK57" s="123"/>
-      <c r="AL57" s="123"/>
-      <c r="AM57" s="123"/>
-      <c r="AN57" s="123"/>
-      <c r="AO57" s="123"/>
-      <c r="AP57" s="123"/>
-      <c r="AQ57" s="123"/>
-      <c r="AR57" s="123"/>
-      <c r="AS57" s="123"/>
-      <c r="AT57" s="123"/>
-      <c r="AU57" s="123"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="134"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="134"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="134"/>
+      <c r="U57" s="135"/>
+      <c r="V57" s="134"/>
+      <c r="W57" s="135"/>
+      <c r="X57" s="134"/>
+      <c r="Y57" s="135"/>
+      <c r="Z57" s="134"/>
+      <c r="AA57" s="135"/>
+      <c r="AB57" s="134"/>
+      <c r="AC57" s="135"/>
+      <c r="AD57" s="134"/>
+      <c r="AE57" s="135"/>
+      <c r="AF57" s="134"/>
+      <c r="AG57" s="135"/>
+      <c r="AH57" s="136"/>
+      <c r="AI57" s="136"/>
+      <c r="AJ57" s="136"/>
+      <c r="AK57" s="136"/>
+      <c r="AL57" s="136"/>
+      <c r="AM57" s="136"/>
+      <c r="AN57" s="136"/>
+      <c r="AO57" s="136"/>
+      <c r="AP57" s="136"/>
+      <c r="AQ57" s="136"/>
+      <c r="AR57" s="136"/>
+      <c r="AS57" s="136"/>
+      <c r="AT57" s="136"/>
+      <c r="AU57" s="136"/>
       <c r="AV57" s="57"/>
       <c r="AW57" s="57"/>
       <c r="AX57" s="57"/>
@@ -11206,28 +11221,28 @@
       <c r="C58" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="121" t="s">
+      <c r="D58" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="122"/>
-      <c r="F58" s="121" t="s">
+      <c r="E58" s="132"/>
+      <c r="F58" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="G58" s="122"/>
-      <c r="H58" s="130" t="s">
+      <c r="G58" s="132"/>
+      <c r="H58" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="131"/>
+      <c r="I58" s="138"/>
       <c r="J58" s="35" t="s">
         <v>478</v>
       </c>
       <c r="K58" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="L58" s="121" t="s">
+      <c r="L58" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="M58" s="122"/>
+      <c r="M58" s="132"/>
       <c r="N58" s="35" t="s">
         <v>437</v>
       </c>
@@ -11246,10 +11261,10 @@
       <c r="S58" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="T58" s="130" t="s">
+      <c r="T58" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="U58" s="131"/>
+      <c r="U58" s="138"/>
       <c r="V58" s="35" t="s">
         <v>480</v>
       </c>
@@ -11280,10 +11295,10 @@
       <c r="AE58" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="AF58" s="130" t="s">
+      <c r="AF58" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="AG58" s="131"/>
+      <c r="AG58" s="138"/>
       <c r="AH58" s="35" t="s">
         <v>477</v>
       </c>
@@ -11314,10 +11329,10 @@
       <c r="AQ58" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="AR58" s="130" t="s">
+      <c r="AR58" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="AS58" s="131"/>
+      <c r="AS58" s="138"/>
       <c r="AT58" s="9"/>
       <c r="AU58" s="14"/>
       <c r="AV58" s="14"/>
@@ -11355,10 +11370,10 @@
       <c r="G59" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="H59" s="121" t="s">
+      <c r="H59" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="I59" s="122"/>
+      <c r="I59" s="132"/>
       <c r="J59" s="49" t="s">
         <v>291</v>
       </c>
@@ -11431,10 +11446,10 @@
       <c r="AG59" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="AH59" s="124" t="s">
+      <c r="AH59" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="AI59" s="124"/>
+      <c r="AI59" s="133"/>
       <c r="AJ59" s="35" t="s">
         <v>377</v>
       </c>
@@ -11538,10 +11553,10 @@
       <c r="S60" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="T60" s="121" t="s">
+      <c r="T60" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="U60" s="122"/>
+      <c r="U60" s="132"/>
       <c r="V60" s="30" t="s">
         <v>283</v>
       </c>
@@ -11870,10 +11885,10 @@
       <c r="AE62" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="AF62" s="130" t="s">
+      <c r="AF62" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="AG62" s="131"/>
+      <c r="AG62" s="138"/>
       <c r="AH62" s="30" t="s">
         <v>274</v>
       </c>
@@ -11904,10 +11919,10 @@
       <c r="AQ62" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AR62" s="130" t="s">
+      <c r="AR62" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="AS62" s="131"/>
+      <c r="AS62" s="138"/>
       <c r="AT62" s="9"/>
       <c r="AU62" s="14"/>
       <c r="AV62" s="14"/>
@@ -11939,10 +11954,10 @@
       <c r="E63" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="121" t="s">
+      <c r="F63" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="G63" s="122"/>
+      <c r="G63" s="132"/>
       <c r="H63" s="30" t="s">
         <v>294</v>
       </c>
@@ -12305,10 +12320,10 @@
       <c r="AA65" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="AB65" s="121" t="s">
+      <c r="AB65" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AC65" s="122"/>
+      <c r="AC65" s="132"/>
       <c r="AD65" s="49" t="s">
         <v>322</v>
       </c>
@@ -12382,14 +12397,14 @@
       <c r="C66" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="121" t="s">
+      <c r="D66" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="122"/>
-      <c r="F66" s="121" t="s">
+      <c r="E66" s="132"/>
+      <c r="F66" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="G66" s="122"/>
+      <c r="G66" s="132"/>
       <c r="H66" s="30" t="s">
         <v>404</v>
       </c>
@@ -12522,61 +12537,61 @@
       <c r="A67" s="66"/>
       <c r="B67" s="67"/>
       <c r="C67" s="67"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="127"/>
-      <c r="L67" s="125"/>
-      <c r="M67" s="127"/>
-      <c r="N67" s="125"/>
-      <c r="O67" s="127"/>
-      <c r="P67" s="125"/>
-      <c r="Q67" s="127"/>
-      <c r="R67" s="125"/>
-      <c r="S67" s="127"/>
-      <c r="T67" s="125"/>
-      <c r="U67" s="127"/>
-      <c r="V67" s="125"/>
-      <c r="W67" s="127"/>
-      <c r="X67" s="123"/>
-      <c r="Y67" s="123"/>
-      <c r="Z67" s="123"/>
-      <c r="AA67" s="123"/>
-      <c r="AB67" s="123"/>
-      <c r="AC67" s="123"/>
-      <c r="AD67" s="123"/>
-      <c r="AE67" s="123"/>
-      <c r="AF67" s="123"/>
-      <c r="AG67" s="123"/>
-      <c r="AH67" s="123"/>
-      <c r="AI67" s="123"/>
-      <c r="AJ67" s="123"/>
-      <c r="AK67" s="123"/>
-      <c r="AL67" s="123"/>
-      <c r="AM67" s="123"/>
-      <c r="AN67" s="123"/>
-      <c r="AO67" s="123"/>
-      <c r="AP67" s="123"/>
-      <c r="AQ67" s="123"/>
-      <c r="AR67" s="123"/>
-      <c r="AS67" s="123"/>
-      <c r="AT67" s="125"/>
-      <c r="AU67" s="126"/>
-      <c r="AV67" s="126"/>
-      <c r="AW67" s="126"/>
-      <c r="AX67" s="126"/>
-      <c r="AY67" s="126"/>
-      <c r="AZ67" s="126"/>
-      <c r="BA67" s="126"/>
-      <c r="BB67" s="126"/>
-      <c r="BC67" s="126"/>
-      <c r="BD67" s="126"/>
-      <c r="BE67" s="126"/>
-      <c r="BF67" s="127"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="139"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="140"/>
+      <c r="N67" s="139"/>
+      <c r="O67" s="140"/>
+      <c r="P67" s="139"/>
+      <c r="Q67" s="140"/>
+      <c r="R67" s="139"/>
+      <c r="S67" s="140"/>
+      <c r="T67" s="139"/>
+      <c r="U67" s="140"/>
+      <c r="V67" s="139"/>
+      <c r="W67" s="140"/>
+      <c r="X67" s="136"/>
+      <c r="Y67" s="136"/>
+      <c r="Z67" s="136"/>
+      <c r="AA67" s="136"/>
+      <c r="AB67" s="136"/>
+      <c r="AC67" s="136"/>
+      <c r="AD67" s="136"/>
+      <c r="AE67" s="136"/>
+      <c r="AF67" s="136"/>
+      <c r="AG67" s="136"/>
+      <c r="AH67" s="136"/>
+      <c r="AI67" s="136"/>
+      <c r="AJ67" s="136"/>
+      <c r="AK67" s="136"/>
+      <c r="AL67" s="136"/>
+      <c r="AM67" s="136"/>
+      <c r="AN67" s="136"/>
+      <c r="AO67" s="136"/>
+      <c r="AP67" s="136"/>
+      <c r="AQ67" s="136"/>
+      <c r="AR67" s="136"/>
+      <c r="AS67" s="136"/>
+      <c r="AT67" s="139"/>
+      <c r="AU67" s="141"/>
+      <c r="AV67" s="141"/>
+      <c r="AW67" s="141"/>
+      <c r="AX67" s="141"/>
+      <c r="AY67" s="141"/>
+      <c r="AZ67" s="141"/>
+      <c r="BA67" s="141"/>
+      <c r="BB67" s="141"/>
+      <c r="BC67" s="141"/>
+      <c r="BD67" s="141"/>
+      <c r="BE67" s="141"/>
+      <c r="BF67" s="140"/>
     </row>
     <row r="68" spans="1:58" ht="24" customHeight="1">
       <c r="A68" s="14">
@@ -12676,10 +12691,10 @@
         <v>421</v>
       </c>
       <c r="S69" s="51"/>
-      <c r="T69" s="124" t="s">
+      <c r="T69" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="U69" s="124"/>
+      <c r="U69" s="133"/>
       <c r="V69" s="71" t="s">
         <v>311</v>
       </c>
@@ -12692,10 +12707,10 @@
         <v>343</v>
       </c>
       <c r="AA69" s="70"/>
-      <c r="AB69" s="121" t="s">
+      <c r="AB69" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AC69" s="122"/>
+      <c r="AC69" s="132"/>
       <c r="AD69" s="30" t="s">
         <v>331</v>
       </c>
@@ -13304,10 +13319,10 @@
       <c r="Q77" s="70"/>
       <c r="R77" s="30"/>
       <c r="S77" s="70"/>
-      <c r="T77" s="124" t="s">
+      <c r="T77" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="U77" s="124"/>
+      <c r="U77" s="133"/>
       <c r="V77" s="30" t="s">
         <v>294</v>
       </c>
@@ -13874,14 +13889,14 @@
         <v>354</v>
       </c>
       <c r="O84" s="86"/>
-      <c r="P84" s="121" t="s">
+      <c r="P84" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="Q84" s="122"/>
-      <c r="R84" s="121" t="s">
+      <c r="Q84" s="132"/>
+      <c r="R84" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="S84" s="122"/>
+      <c r="S84" s="132"/>
       <c r="T84" s="35" t="s">
         <v>559</v>
       </c>
@@ -13890,34 +13905,34 @@
         <v>326</v>
       </c>
       <c r="W84" s="86"/>
-      <c r="X84" s="121" t="s">
+      <c r="X84" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="Y84" s="122"/>
-      <c r="Z84" s="121" t="s">
+      <c r="Y84" s="132"/>
+      <c r="Z84" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="AA84" s="122"/>
-      <c r="AB84" s="121" t="s">
+      <c r="AA84" s="132"/>
+      <c r="AB84" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="AC84" s="122"/>
-      <c r="AD84" s="121" t="s">
+      <c r="AC84" s="132"/>
+      <c r="AD84" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="AE84" s="122"/>
-      <c r="AF84" s="121" t="s">
+      <c r="AE84" s="132"/>
+      <c r="AF84" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="AG84" s="122"/>
-      <c r="AH84" s="124" t="s">
+      <c r="AG84" s="132"/>
+      <c r="AH84" s="133" t="s">
         <v>224</v>
       </c>
-      <c r="AI84" s="124"/>
-      <c r="AJ84" s="128"/>
-      <c r="AK84" s="128"/>
-      <c r="AL84" s="128"/>
-      <c r="AM84" s="128"/>
+      <c r="AI84" s="133"/>
+      <c r="AJ84" s="142"/>
+      <c r="AK84" s="142"/>
+      <c r="AL84" s="142"/>
+      <c r="AM84" s="142"/>
       <c r="AN84" s="30" t="s">
         <v>463</v>
       </c>
@@ -13974,10 +13989,10 @@
       <c r="Q85" s="90"/>
       <c r="R85" s="91"/>
       <c r="S85" s="90"/>
-      <c r="T85" s="129" t="s">
+      <c r="T85" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="U85" s="129"/>
+      <c r="U85" s="143"/>
       <c r="V85" s="91" t="s">
         <v>294</v>
       </c>
@@ -14050,61 +14065,61 @@
       <c r="A86" s="93"/>
       <c r="B86" s="94"/>
       <c r="C86" s="94"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="125"/>
-      <c r="K86" s="127"/>
-      <c r="L86" s="125"/>
-      <c r="M86" s="127"/>
-      <c r="N86" s="125"/>
-      <c r="O86" s="127"/>
-      <c r="P86" s="125"/>
-      <c r="Q86" s="127"/>
-      <c r="R86" s="125"/>
-      <c r="S86" s="127"/>
-      <c r="T86" s="125"/>
-      <c r="U86" s="127"/>
-      <c r="V86" s="125"/>
-      <c r="W86" s="127"/>
-      <c r="X86" s="125"/>
-      <c r="Y86" s="127"/>
-      <c r="Z86" s="125"/>
-      <c r="AA86" s="127"/>
-      <c r="AB86" s="125"/>
-      <c r="AC86" s="127"/>
-      <c r="AD86" s="125"/>
-      <c r="AE86" s="127"/>
-      <c r="AF86" s="125"/>
-      <c r="AG86" s="127"/>
-      <c r="AH86" s="123"/>
-      <c r="AI86" s="123"/>
-      <c r="AJ86" s="123"/>
-      <c r="AK86" s="123"/>
-      <c r="AL86" s="123"/>
-      <c r="AM86" s="123"/>
-      <c r="AN86" s="123"/>
-      <c r="AO86" s="123"/>
-      <c r="AP86" s="123"/>
-      <c r="AQ86" s="123"/>
-      <c r="AR86" s="123"/>
-      <c r="AS86" s="123"/>
-      <c r="AT86" s="125"/>
-      <c r="AU86" s="126"/>
-      <c r="AV86" s="126"/>
-      <c r="AW86" s="126"/>
-      <c r="AX86" s="126"/>
-      <c r="AY86" s="126"/>
-      <c r="AZ86" s="126"/>
-      <c r="BA86" s="126"/>
-      <c r="BB86" s="126"/>
-      <c r="BC86" s="126"/>
-      <c r="BD86" s="126"/>
-      <c r="BE86" s="126"/>
-      <c r="BF86" s="127"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="140"/>
+      <c r="J86" s="139"/>
+      <c r="K86" s="140"/>
+      <c r="L86" s="139"/>
+      <c r="M86" s="140"/>
+      <c r="N86" s="139"/>
+      <c r="O86" s="140"/>
+      <c r="P86" s="139"/>
+      <c r="Q86" s="140"/>
+      <c r="R86" s="139"/>
+      <c r="S86" s="140"/>
+      <c r="T86" s="139"/>
+      <c r="U86" s="140"/>
+      <c r="V86" s="139"/>
+      <c r="W86" s="140"/>
+      <c r="X86" s="139"/>
+      <c r="Y86" s="140"/>
+      <c r="Z86" s="139"/>
+      <c r="AA86" s="140"/>
+      <c r="AB86" s="139"/>
+      <c r="AC86" s="140"/>
+      <c r="AD86" s="139"/>
+      <c r="AE86" s="140"/>
+      <c r="AF86" s="139"/>
+      <c r="AG86" s="140"/>
+      <c r="AH86" s="136"/>
+      <c r="AI86" s="136"/>
+      <c r="AJ86" s="136"/>
+      <c r="AK86" s="136"/>
+      <c r="AL86" s="136"/>
+      <c r="AM86" s="136"/>
+      <c r="AN86" s="136"/>
+      <c r="AO86" s="136"/>
+      <c r="AP86" s="136"/>
+      <c r="AQ86" s="136"/>
+      <c r="AR86" s="136"/>
+      <c r="AS86" s="136"/>
+      <c r="AT86" s="139"/>
+      <c r="AU86" s="141"/>
+      <c r="AV86" s="141"/>
+      <c r="AW86" s="141"/>
+      <c r="AX86" s="141"/>
+      <c r="AY86" s="141"/>
+      <c r="AZ86" s="141"/>
+      <c r="BA86" s="141"/>
+      <c r="BB86" s="141"/>
+      <c r="BC86" s="141"/>
+      <c r="BD86" s="141"/>
+      <c r="BE86" s="141"/>
+      <c r="BF86" s="140"/>
     </row>
     <row r="87" spans="1:58" ht="24" customHeight="1">
       <c r="A87" s="95">
@@ -14297,18 +14312,18 @@
       <c r="M88" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="N88" s="121" t="s">
+      <c r="N88" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="O88" s="122"/>
-      <c r="P88" s="121" t="s">
+      <c r="O88" s="132"/>
+      <c r="P88" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="Q88" s="122"/>
-      <c r="R88" s="121" t="s">
+      <c r="Q88" s="132"/>
+      <c r="R88" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="S88" s="122"/>
+      <c r="S88" s="132"/>
       <c r="T88" s="30" t="s">
         <v>293</v>
       </c>
@@ -15196,10 +15211,10 @@
       <c r="M94" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="N94" s="121" t="s">
+      <c r="N94" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="O94" s="122"/>
+      <c r="O94" s="132"/>
       <c r="P94" s="30" t="s">
         <v>340</v>
       </c>
@@ -15327,66 +15342,66 @@
       <c r="G95" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="H95" s="121" t="s">
+      <c r="H95" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="I95" s="122"/>
-      <c r="J95" s="121" t="s">
+      <c r="I95" s="132"/>
+      <c r="J95" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="K95" s="122"/>
-      <c r="L95" s="121" t="s">
+      <c r="K95" s="132"/>
+      <c r="L95" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="M95" s="122"/>
-      <c r="N95" s="121" t="s">
+      <c r="M95" s="132"/>
+      <c r="N95" s="131" t="s">
         <v>237</v>
       </c>
-      <c r="O95" s="122"/>
-      <c r="P95" s="121" t="s">
+      <c r="O95" s="132"/>
+      <c r="P95" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="Q95" s="122"/>
-      <c r="R95" s="121" t="s">
+      <c r="Q95" s="132"/>
+      <c r="R95" s="131" t="s">
         <v>239</v>
       </c>
-      <c r="S95" s="122"/>
-      <c r="T95" s="121" t="s">
+      <c r="S95" s="132"/>
+      <c r="T95" s="131" t="s">
         <v>240</v>
       </c>
-      <c r="U95" s="122"/>
-      <c r="V95" s="121" t="s">
+      <c r="U95" s="132"/>
+      <c r="V95" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="W95" s="122"/>
-      <c r="X95" s="121" t="s">
+      <c r="W95" s="132"/>
+      <c r="X95" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="Y95" s="122"/>
-      <c r="Z95" s="121" t="s">
+      <c r="Y95" s="132"/>
+      <c r="Z95" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="AA95" s="122"/>
-      <c r="AB95" s="121" t="s">
+      <c r="AA95" s="132"/>
+      <c r="AB95" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="AC95" s="122"/>
-      <c r="AD95" s="121" t="s">
+      <c r="AC95" s="132"/>
+      <c r="AD95" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="AE95" s="122"/>
-      <c r="AF95" s="121" t="s">
+      <c r="AE95" s="132"/>
+      <c r="AF95" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="AG95" s="122"/>
-      <c r="AH95" s="124" t="s">
+      <c r="AG95" s="132"/>
+      <c r="AH95" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="AI95" s="124"/>
-      <c r="AJ95" s="124" t="s">
+      <c r="AI95" s="133"/>
+      <c r="AJ95" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="AK95" s="124"/>
+      <c r="AK95" s="133"/>
       <c r="AL95" s="30" t="s">
         <v>352</v>
       </c>
@@ -15468,10 +15483,10 @@
       <c r="AG96" s="62"/>
       <c r="AH96" s="53"/>
       <c r="AI96" s="53"/>
-      <c r="AJ96" s="120" t="s">
+      <c r="AJ96" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="AK96" s="120"/>
+      <c r="AK96" s="144"/>
       <c r="AL96" s="30" t="s">
         <v>322</v>
       </c>
@@ -16569,165 +16584,19 @@
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="AJ45:AK45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="AP38:AQ38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="AT57:AU57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AF58:AG58"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="AJ57:AK57"/>
-    <mergeCell ref="AL57:AM57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AR58:AS58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="AH59:AI59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="AF62:AG62"/>
-    <mergeCell ref="AR62:AS62"/>
-    <mergeCell ref="AN57:AO57"/>
-    <mergeCell ref="AP57:AQ57"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="AN67:AO67"/>
-    <mergeCell ref="AP67:AQ67"/>
-    <mergeCell ref="AR67:AS67"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="AB65:AC65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="AT67:BF67"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="AB69:AC69"/>
-    <mergeCell ref="AB67:AC67"/>
-    <mergeCell ref="AD67:AE67"/>
-    <mergeCell ref="AF67:AG67"/>
-    <mergeCell ref="AH67:AI67"/>
-    <mergeCell ref="AJ67:AK67"/>
-    <mergeCell ref="AL67:AM67"/>
-    <mergeCell ref="AJ84:AK84"/>
-    <mergeCell ref="AL84:AM84"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AF84:AG84"/>
-    <mergeCell ref="AH84:AI84"/>
+    <mergeCell ref="AJ96:AK96"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="T95:U95"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="AB95:AC95"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
     <mergeCell ref="AN86:AO86"/>
     <mergeCell ref="AP86:AQ86"/>
     <mergeCell ref="AR86:AS86"/>
@@ -16751,19 +16620,165 @@
     <mergeCell ref="V86:W86"/>
     <mergeCell ref="X86:Y86"/>
     <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="AJ96:AK96"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="T95:U95"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="AB95:AC95"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AF84:AG84"/>
+    <mergeCell ref="AH84:AI84"/>
+    <mergeCell ref="AJ84:AK84"/>
+    <mergeCell ref="AL84:AM84"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="AT67:BF67"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="AB69:AC69"/>
+    <mergeCell ref="AB67:AC67"/>
+    <mergeCell ref="AD67:AE67"/>
+    <mergeCell ref="AF67:AG67"/>
+    <mergeCell ref="AH67:AI67"/>
+    <mergeCell ref="AJ67:AK67"/>
+    <mergeCell ref="AL67:AM67"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="AB65:AC65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="AF62:AG62"/>
+    <mergeCell ref="AR62:AS62"/>
+    <mergeCell ref="AN57:AO57"/>
+    <mergeCell ref="AP57:AQ57"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="AN67:AO67"/>
+    <mergeCell ref="AP67:AQ67"/>
+    <mergeCell ref="AR67:AS67"/>
+    <mergeCell ref="AT57:AU57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="AJ57:AK57"/>
+    <mergeCell ref="AL57:AM57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AR58:AS58"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="AJ45:AK45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="AP38:AQ38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -16776,12 +16791,12 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:AJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="AC77" sqref="AC77"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16791,11 +16806,11 @@
     <col min="3" max="3" width="22.6640625" style="10" customWidth="1"/>
     <col min="4" max="24" width="15.6640625" style="10" customWidth="1"/>
     <col min="25" max="25" width="20.6640625" style="10" customWidth="1"/>
-    <col min="26" max="27" width="15.6640625" style="10" customWidth="1"/>
-    <col min="28" max="16384" width="6.88671875" style="10"/>
+    <col min="26" max="36" width="15.6640625" style="10" customWidth="1"/>
+    <col min="37" max="16384" width="6.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="145" t="s">
         <v>112</v>
       </c>
@@ -16803,7 +16818,7 @@
       <c r="C1" s="145"/>
       <c r="D1" s="145"/>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="32.25" customHeight="1">
+    <row r="2" spans="1:36" s="6" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -16879,12 +16894,42 @@
       <c r="Y2" s="3">
         <v>244338</v>
       </c>
-      <c r="Z2" s="107" t="s">
+      <c r="Z2" s="3">
+        <v>244339</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>244340</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>244341</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>244342</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>244343</v>
+      </c>
+      <c r="AE2" s="107" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="146">
+      <c r="AF2" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG2" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH2" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" s="146" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ2" s="146" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
@@ -16910,11 +16955,21 @@
       <c r="V3" s="105"/>
       <c r="W3" s="105"/>
       <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="146">
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="148"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+    </row>
+    <row r="4" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="7">
         <f>SUM(A3)+1</f>
         <v>2</v>
       </c>
@@ -16941,11 +16996,21 @@
       <c r="V4" s="105"/>
       <c r="W4" s="105"/>
       <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="146">
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="148"/>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="148"/>
+      <c r="AH4" s="148"/>
+      <c r="AI4" s="148"/>
+      <c r="AJ4" s="148"/>
+    </row>
+    <row r="5" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="7">
         <f t="shared" ref="A5:A69" si="0">SUM(A4)+1</f>
         <v>3</v>
       </c>
@@ -16972,11 +17037,21 @@
       <c r="V5" s="105"/>
       <c r="W5" s="105"/>
       <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="146">
+      <c r="Y5" s="147"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+    </row>
+    <row r="6" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -17003,11 +17078,21 @@
       <c r="V6" s="105"/>
       <c r="W6" s="105"/>
       <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="146">
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="148"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="148"/>
+      <c r="AE6" s="148"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
+    </row>
+    <row r="7" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -17034,11 +17119,21 @@
       <c r="V7" s="105"/>
       <c r="W7" s="105"/>
       <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="146">
+      <c r="Y7" s="147"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="148"/>
+      <c r="AB7" s="148"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="148"/>
+      <c r="AG7" s="148"/>
+      <c r="AH7" s="148"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="148"/>
+    </row>
+    <row r="8" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -17065,11 +17160,21 @@
       <c r="V8" s="105"/>
       <c r="W8" s="105"/>
       <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="146">
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
+    </row>
+    <row r="9" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -17096,11 +17201,21 @@
       <c r="V9" s="105"/>
       <c r="W9" s="105"/>
       <c r="X9" s="105"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="146">
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="148"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
+    </row>
+    <row r="10" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -17127,11 +17242,21 @@
       <c r="V10" s="105"/>
       <c r="W10" s="105"/>
       <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="146">
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="148"/>
+      <c r="AI10" s="148"/>
+      <c r="AJ10" s="148"/>
+    </row>
+    <row r="11" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -17158,11 +17283,21 @@
       <c r="V11" s="105"/>
       <c r="W11" s="105"/>
       <c r="X11" s="105"/>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="146">
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="148"/>
+    </row>
+    <row r="12" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -17189,11 +17324,21 @@
       <c r="V12" s="105"/>
       <c r="W12" s="105"/>
       <c r="X12" s="105"/>
-      <c r="Y12" s="105"/>
-      <c r="Z12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="146">
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="148"/>
+      <c r="AG12" s="148"/>
+      <c r="AH12" s="148"/>
+      <c r="AI12" s="148"/>
+      <c r="AJ12" s="148"/>
+    </row>
+    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -17220,11 +17365,21 @@
       <c r="V13" s="105"/>
       <c r="W13" s="105"/>
       <c r="X13" s="105"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="146">
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+    </row>
+    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -17251,11 +17406,21 @@
       <c r="V14" s="105"/>
       <c r="W14" s="105"/>
       <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
-      <c r="Z14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="146">
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="149"/>
+    </row>
+    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -17282,11 +17447,21 @@
       <c r="V15" s="105"/>
       <c r="W15" s="105"/>
       <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="146">
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+    </row>
+    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -17313,11 +17488,21 @@
       <c r="V16" s="105"/>
       <c r="W16" s="105"/>
       <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="7"/>
-    </row>
-    <row r="17" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="146">
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+    </row>
+    <row r="17" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -17344,11 +17529,21 @@
       <c r="V17" s="105"/>
       <c r="W17" s="105"/>
       <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="7"/>
-    </row>
-    <row r="18" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="146">
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+    </row>
+    <row r="18" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -17375,11 +17570,21 @@
       <c r="V18" s="105"/>
       <c r="W18" s="105"/>
       <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="146">
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+    </row>
+    <row r="19" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -17406,11 +17611,21 @@
       <c r="V19" s="105"/>
       <c r="W19" s="105"/>
       <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="7"/>
-    </row>
-    <row r="20" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="146">
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+    </row>
+    <row r="20" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -17437,11 +17652,21 @@
       <c r="V20" s="105"/>
       <c r="W20" s="105"/>
       <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="7"/>
-    </row>
-    <row r="21" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="146">
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+    </row>
+    <row r="21" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -17468,11 +17693,21 @@
       <c r="V21" s="105"/>
       <c r="W21" s="105"/>
       <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="7"/>
-    </row>
-    <row r="22" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="146">
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="149"/>
+    </row>
+    <row r="22" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -17499,11 +17734,21 @@
       <c r="V22" s="105"/>
       <c r="W22" s="105"/>
       <c r="X22" s="105"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="7"/>
-    </row>
-    <row r="23" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="146">
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="149"/>
+    </row>
+    <row r="23" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -17530,11 +17775,21 @@
       <c r="V23" s="105"/>
       <c r="W23" s="105"/>
       <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="7"/>
-    </row>
-    <row r="24" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="146">
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+    </row>
+    <row r="24" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -17561,11 +17816,21 @@
       <c r="V24" s="105"/>
       <c r="W24" s="105"/>
       <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="146">
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="149"/>
+    </row>
+    <row r="25" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -17592,11 +17857,21 @@
       <c r="V25" s="105"/>
       <c r="W25" s="105"/>
       <c r="X25" s="105"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="7"/>
-    </row>
-    <row r="26" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="146">
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="149"/>
+    </row>
+    <row r="26" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -17623,11 +17898,21 @@
       <c r="V26" s="105"/>
       <c r="W26" s="105"/>
       <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="7"/>
-    </row>
-    <row r="27" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="146">
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+    </row>
+    <row r="27" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -17654,11 +17939,21 @@
       <c r="V27" s="105"/>
       <c r="W27" s="105"/>
       <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="7"/>
-    </row>
-    <row r="28" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="146">
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="149"/>
+    </row>
+    <row r="28" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -17685,11 +17980,21 @@
       <c r="V28" s="105"/>
       <c r="W28" s="105"/>
       <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="7"/>
-    </row>
-    <row r="29" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="146">
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="149"/>
+    </row>
+    <row r="29" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -17716,11 +18021,21 @@
       <c r="V29" s="105"/>
       <c r="W29" s="105"/>
       <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="7"/>
-    </row>
-    <row r="30" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="146">
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="149"/>
+    </row>
+    <row r="30" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -17747,11 +18062,21 @@
       <c r="V30" s="105"/>
       <c r="W30" s="105"/>
       <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="7"/>
-    </row>
-    <row r="31" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="146">
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="149"/>
+    </row>
+    <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -17778,11 +18103,21 @@
       <c r="V31" s="105"/>
       <c r="W31" s="105"/>
       <c r="X31" s="105"/>
-      <c r="Y31" s="105"/>
-      <c r="Z31" s="7"/>
-    </row>
-    <row r="32" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="146">
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+    </row>
+    <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -17809,11 +18144,21 @@
       <c r="V32" s="105"/>
       <c r="W32" s="105"/>
       <c r="X32" s="105"/>
-      <c r="Y32" s="105"/>
-      <c r="Z32" s="7"/>
-    </row>
-    <row r="33" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="146">
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+    </row>
+    <row r="33" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -17840,11 +18185,21 @@
       <c r="V33" s="105"/>
       <c r="W33" s="105"/>
       <c r="X33" s="105"/>
-      <c r="Y33" s="105"/>
-      <c r="Z33" s="7"/>
-    </row>
-    <row r="34" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="149"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
+    </row>
+    <row r="34" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="116"/>
       <c r="B34" s="116"/>
       <c r="C34" s="117"/>
       <c r="D34" s="105"/>
@@ -17868,11 +18223,21 @@
       <c r="V34" s="105"/>
       <c r="W34" s="105"/>
       <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="7"/>
-    </row>
-    <row r="35" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="146">
+      <c r="Y34" s="147"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="149"/>
+      <c r="AF34" s="149"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="149"/>
+    </row>
+    <row r="35" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="7">
         <v>32</v>
       </c>
       <c r="B35" s="7"/>
@@ -17898,11 +18263,21 @@
       <c r="V35" s="105"/>
       <c r="W35" s="105"/>
       <c r="X35" s="105"/>
-      <c r="Y35" s="105"/>
-      <c r="Z35" s="7"/>
-    </row>
-    <row r="36" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="146">
+      <c r="Y35" s="147"/>
+      <c r="Z35" s="148"/>
+      <c r="AA35" s="149"/>
+      <c r="AB35" s="149"/>
+      <c r="AC35" s="149"/>
+      <c r="AD35" s="149"/>
+      <c r="AE35" s="149"/>
+      <c r="AF35" s="149"/>
+      <c r="AG35" s="149"/>
+      <c r="AH35" s="149"/>
+      <c r="AI35" s="149"/>
+      <c r="AJ35" s="149"/>
+    </row>
+    <row r="36" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -17929,11 +18304,21 @@
       <c r="V36" s="105"/>
       <c r="W36" s="105"/>
       <c r="X36" s="105"/>
-      <c r="Y36" s="105"/>
-      <c r="Z36" s="7"/>
-    </row>
-    <row r="37" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="146">
+      <c r="Y36" s="147"/>
+      <c r="Z36" s="148"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="149"/>
+      <c r="AC36" s="149"/>
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="149"/>
+      <c r="AF36" s="149"/>
+      <c r="AG36" s="149"/>
+      <c r="AH36" s="149"/>
+      <c r="AI36" s="149"/>
+      <c r="AJ36" s="149"/>
+    </row>
+    <row r="37" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -17960,11 +18345,21 @@
       <c r="V37" s="105"/>
       <c r="W37" s="105"/>
       <c r="X37" s="105"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="7"/>
-    </row>
-    <row r="38" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="146">
+      <c r="Y37" s="147"/>
+      <c r="Z37" s="148"/>
+      <c r="AA37" s="149"/>
+      <c r="AB37" s="149"/>
+      <c r="AC37" s="149"/>
+      <c r="AD37" s="149"/>
+      <c r="AE37" s="149"/>
+      <c r="AF37" s="149"/>
+      <c r="AG37" s="149"/>
+      <c r="AH37" s="149"/>
+      <c r="AI37" s="149"/>
+      <c r="AJ37" s="149"/>
+    </row>
+    <row r="38" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -17991,11 +18386,21 @@
       <c r="V38" s="105"/>
       <c r="W38" s="105"/>
       <c r="X38" s="105"/>
-      <c r="Y38" s="105"/>
-      <c r="Z38" s="7"/>
-    </row>
-    <row r="39" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="146">
+      <c r="Y38" s="147"/>
+      <c r="Z38" s="148"/>
+      <c r="AA38" s="149"/>
+      <c r="AB38" s="149"/>
+      <c r="AC38" s="149"/>
+      <c r="AD38" s="149"/>
+      <c r="AE38" s="149"/>
+      <c r="AF38" s="149"/>
+      <c r="AG38" s="149"/>
+      <c r="AH38" s="149"/>
+      <c r="AI38" s="149"/>
+      <c r="AJ38" s="149"/>
+    </row>
+    <row r="39" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -18022,11 +18427,21 @@
       <c r="V39" s="105"/>
       <c r="W39" s="105"/>
       <c r="X39" s="105"/>
-      <c r="Y39" s="105"/>
-      <c r="Z39" s="7"/>
-    </row>
-    <row r="40" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="146">
+      <c r="Y39" s="147"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="149"/>
+      <c r="AB39" s="149"/>
+      <c r="AC39" s="149"/>
+      <c r="AD39" s="149"/>
+      <c r="AE39" s="149"/>
+      <c r="AF39" s="149"/>
+      <c r="AG39" s="149"/>
+      <c r="AH39" s="149"/>
+      <c r="AI39" s="149"/>
+      <c r="AJ39" s="149"/>
+    </row>
+    <row r="40" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -18053,11 +18468,21 @@
       <c r="V40" s="105"/>
       <c r="W40" s="105"/>
       <c r="X40" s="105"/>
-      <c r="Y40" s="105"/>
-      <c r="Z40" s="7"/>
-    </row>
-    <row r="41" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="146">
+      <c r="Y40" s="147"/>
+      <c r="Z40" s="148"/>
+      <c r="AA40" s="149"/>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="149"/>
+      <c r="AD40" s="149"/>
+      <c r="AE40" s="149"/>
+      <c r="AF40" s="149"/>
+      <c r="AG40" s="149"/>
+      <c r="AH40" s="149"/>
+      <c r="AI40" s="149"/>
+      <c r="AJ40" s="149"/>
+    </row>
+    <row r="41" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -18084,11 +18509,21 @@
       <c r="V41" s="105"/>
       <c r="W41" s="105"/>
       <c r="X41" s="105"/>
-      <c r="Y41" s="105"/>
-      <c r="Z41" s="7"/>
-    </row>
-    <row r="42" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="146">
+      <c r="Y41" s="147"/>
+      <c r="Z41" s="148"/>
+      <c r="AA41" s="149"/>
+      <c r="AB41" s="149"/>
+      <c r="AC41" s="149"/>
+      <c r="AD41" s="149"/>
+      <c r="AE41" s="149"/>
+      <c r="AF41" s="149"/>
+      <c r="AG41" s="149"/>
+      <c r="AH41" s="149"/>
+      <c r="AI41" s="149"/>
+      <c r="AJ41" s="149"/>
+    </row>
+    <row r="42" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -18115,11 +18550,21 @@
       <c r="V42" s="105"/>
       <c r="W42" s="105"/>
       <c r="X42" s="105"/>
-      <c r="Y42" s="105"/>
-      <c r="Z42" s="7"/>
-    </row>
-    <row r="43" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="146">
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="148"/>
+      <c r="AA42" s="149"/>
+      <c r="AB42" s="149"/>
+      <c r="AC42" s="149"/>
+      <c r="AD42" s="149"/>
+      <c r="AE42" s="149"/>
+      <c r="AF42" s="149"/>
+      <c r="AG42" s="149"/>
+      <c r="AH42" s="149"/>
+      <c r="AI42" s="149"/>
+      <c r="AJ42" s="149"/>
+    </row>
+    <row r="43" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -18146,11 +18591,21 @@
       <c r="V43" s="105"/>
       <c r="W43" s="105"/>
       <c r="X43" s="105"/>
-      <c r="Y43" s="105"/>
-      <c r="Z43" s="7"/>
-    </row>
-    <row r="44" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="146">
+      <c r="Y43" s="147"/>
+      <c r="Z43" s="148"/>
+      <c r="AA43" s="149"/>
+      <c r="AB43" s="149"/>
+      <c r="AC43" s="149"/>
+      <c r="AD43" s="149"/>
+      <c r="AE43" s="149"/>
+      <c r="AF43" s="149"/>
+      <c r="AG43" s="149"/>
+      <c r="AH43" s="149"/>
+      <c r="AI43" s="149"/>
+      <c r="AJ43" s="149"/>
+    </row>
+    <row r="44" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -18177,11 +18632,21 @@
       <c r="V44" s="105"/>
       <c r="W44" s="105"/>
       <c r="X44" s="105"/>
-      <c r="Y44" s="105"/>
-      <c r="Z44" s="7"/>
-    </row>
-    <row r="45" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="146">
+      <c r="Y44" s="147"/>
+      <c r="Z44" s="148"/>
+      <c r="AA44" s="149"/>
+      <c r="AB44" s="149"/>
+      <c r="AC44" s="149"/>
+      <c r="AD44" s="149"/>
+      <c r="AE44" s="149"/>
+      <c r="AF44" s="149"/>
+      <c r="AG44" s="149"/>
+      <c r="AH44" s="149"/>
+      <c r="AI44" s="149"/>
+      <c r="AJ44" s="149"/>
+    </row>
+    <row r="45" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -18208,11 +18673,21 @@
       <c r="V45" s="105"/>
       <c r="W45" s="105"/>
       <c r="X45" s="105"/>
-      <c r="Y45" s="105"/>
-      <c r="Z45" s="7"/>
-    </row>
-    <row r="46" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="146">
+      <c r="Y45" s="147"/>
+      <c r="Z45" s="148"/>
+      <c r="AA45" s="148"/>
+      <c r="AB45" s="148"/>
+      <c r="AC45" s="148"/>
+      <c r="AD45" s="148"/>
+      <c r="AE45" s="148"/>
+      <c r="AF45" s="148"/>
+      <c r="AG45" s="148"/>
+      <c r="AH45" s="148"/>
+      <c r="AI45" s="148"/>
+      <c r="AJ45" s="148"/>
+    </row>
+    <row r="46" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -18239,11 +18714,21 @@
       <c r="V46" s="105"/>
       <c r="W46" s="105"/>
       <c r="X46" s="105"/>
-      <c r="Y46" s="105"/>
-      <c r="Z46" s="7"/>
-    </row>
-    <row r="47" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="146">
+      <c r="Y46" s="147"/>
+      <c r="Z46" s="148"/>
+      <c r="AA46" s="149"/>
+      <c r="AB46" s="149"/>
+      <c r="AC46" s="149"/>
+      <c r="AD46" s="149"/>
+      <c r="AE46" s="149"/>
+      <c r="AF46" s="149"/>
+      <c r="AG46" s="149"/>
+      <c r="AH46" s="149"/>
+      <c r="AI46" s="149"/>
+      <c r="AJ46" s="149"/>
+    </row>
+    <row r="47" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -18270,11 +18755,21 @@
       <c r="V47" s="105"/>
       <c r="W47" s="105"/>
       <c r="X47" s="105"/>
-      <c r="Y47" s="105"/>
-      <c r="Z47" s="7"/>
-    </row>
-    <row r="48" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="146">
+      <c r="Y47" s="147"/>
+      <c r="Z47" s="148"/>
+      <c r="AA47" s="149"/>
+      <c r="AB47" s="149"/>
+      <c r="AC47" s="149"/>
+      <c r="AD47" s="149"/>
+      <c r="AE47" s="149"/>
+      <c r="AF47" s="149"/>
+      <c r="AG47" s="149"/>
+      <c r="AH47" s="149"/>
+      <c r="AI47" s="149"/>
+      <c r="AJ47" s="149"/>
+    </row>
+    <row r="48" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -18301,11 +18796,21 @@
       <c r="V48" s="105"/>
       <c r="W48" s="105"/>
       <c r="X48" s="105"/>
-      <c r="Y48" s="105"/>
-      <c r="Z48" s="7"/>
-    </row>
-    <row r="49" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="146">
+      <c r="Y48" s="147"/>
+      <c r="Z48" s="148"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="149"/>
+      <c r="AC48" s="149"/>
+      <c r="AD48" s="149"/>
+      <c r="AE48" s="149"/>
+      <c r="AF48" s="149"/>
+      <c r="AG48" s="149"/>
+      <c r="AH48" s="149"/>
+      <c r="AI48" s="149"/>
+      <c r="AJ48" s="149"/>
+    </row>
+    <row r="49" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -18332,11 +18837,21 @@
       <c r="V49" s="105"/>
       <c r="W49" s="105"/>
       <c r="X49" s="105"/>
-      <c r="Y49" s="105"/>
-      <c r="Z49" s="7"/>
-    </row>
-    <row r="50" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="146">
+      <c r="Y49" s="147"/>
+      <c r="Z49" s="148"/>
+      <c r="AA49" s="149"/>
+      <c r="AB49" s="149"/>
+      <c r="AC49" s="149"/>
+      <c r="AD49" s="149"/>
+      <c r="AE49" s="149"/>
+      <c r="AF49" s="149"/>
+      <c r="AG49" s="149"/>
+      <c r="AH49" s="149"/>
+      <c r="AI49" s="149"/>
+      <c r="AJ49" s="149"/>
+    </row>
+    <row r="50" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -18363,11 +18878,21 @@
       <c r="V50" s="105"/>
       <c r="W50" s="105"/>
       <c r="X50" s="105"/>
-      <c r="Y50" s="105"/>
-      <c r="Z50" s="7"/>
-    </row>
-    <row r="51" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="146">
+      <c r="Y50" s="147"/>
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="149"/>
+      <c r="AB50" s="149"/>
+      <c r="AC50" s="149"/>
+      <c r="AD50" s="149"/>
+      <c r="AE50" s="149"/>
+      <c r="AF50" s="149"/>
+      <c r="AG50" s="149"/>
+      <c r="AH50" s="149"/>
+      <c r="AI50" s="149"/>
+      <c r="AJ50" s="149"/>
+    </row>
+    <row r="51" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -18394,11 +18919,21 @@
       <c r="V51" s="105"/>
       <c r="W51" s="105"/>
       <c r="X51" s="105"/>
-      <c r="Y51" s="105"/>
-      <c r="Z51" s="7"/>
-    </row>
-    <row r="52" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="146">
+      <c r="Y51" s="147"/>
+      <c r="Z51" s="148"/>
+      <c r="AA51" s="149"/>
+      <c r="AB51" s="149"/>
+      <c r="AC51" s="149"/>
+      <c r="AD51" s="149"/>
+      <c r="AE51" s="149"/>
+      <c r="AF51" s="149"/>
+      <c r="AG51" s="149"/>
+      <c r="AH51" s="149"/>
+      <c r="AI51" s="149"/>
+      <c r="AJ51" s="149"/>
+    </row>
+    <row r="52" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -18425,11 +18960,21 @@
       <c r="V52" s="105"/>
       <c r="W52" s="105"/>
       <c r="X52" s="105"/>
-      <c r="Y52" s="105"/>
-      <c r="Z52" s="7"/>
-    </row>
-    <row r="53" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="146">
+      <c r="Y52" s="147"/>
+      <c r="Z52" s="148"/>
+      <c r="AA52" s="149"/>
+      <c r="AB52" s="149"/>
+      <c r="AC52" s="149"/>
+      <c r="AD52" s="149"/>
+      <c r="AE52" s="149"/>
+      <c r="AF52" s="149"/>
+      <c r="AG52" s="149"/>
+      <c r="AH52" s="149"/>
+      <c r="AI52" s="149"/>
+      <c r="AJ52" s="149"/>
+    </row>
+    <row r="53" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -18456,11 +19001,21 @@
       <c r="V53" s="105"/>
       <c r="W53" s="105"/>
       <c r="X53" s="105"/>
-      <c r="Y53" s="105"/>
-      <c r="Z53" s="7"/>
-    </row>
-    <row r="54" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="146">
+      <c r="Y53" s="147"/>
+      <c r="Z53" s="148"/>
+      <c r="AA53" s="149"/>
+      <c r="AB53" s="149"/>
+      <c r="AC53" s="149"/>
+      <c r="AD53" s="149"/>
+      <c r="AE53" s="149"/>
+      <c r="AF53" s="149"/>
+      <c r="AG53" s="149"/>
+      <c r="AH53" s="149"/>
+      <c r="AI53" s="149"/>
+      <c r="AJ53" s="149"/>
+    </row>
+    <row r="54" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -18487,11 +19042,21 @@
       <c r="V54" s="105"/>
       <c r="W54" s="105"/>
       <c r="X54" s="105"/>
-      <c r="Y54" s="105"/>
-      <c r="Z54" s="7"/>
-    </row>
-    <row r="55" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="146">
+      <c r="Y54" s="147"/>
+      <c r="Z54" s="148"/>
+      <c r="AA54" s="149"/>
+      <c r="AB54" s="149"/>
+      <c r="AC54" s="149"/>
+      <c r="AD54" s="149"/>
+      <c r="AE54" s="149"/>
+      <c r="AF54" s="149"/>
+      <c r="AG54" s="149"/>
+      <c r="AH54" s="149"/>
+      <c r="AI54" s="149"/>
+      <c r="AJ54" s="149"/>
+    </row>
+    <row r="55" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -18518,11 +19083,21 @@
       <c r="V55" s="105"/>
       <c r="W55" s="105"/>
       <c r="X55" s="105"/>
-      <c r="Y55" s="105"/>
-      <c r="Z55" s="7"/>
-    </row>
-    <row r="56" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="146">
+      <c r="Y55" s="147"/>
+      <c r="Z55" s="148"/>
+      <c r="AA55" s="149"/>
+      <c r="AB55" s="149"/>
+      <c r="AC55" s="149"/>
+      <c r="AD55" s="149"/>
+      <c r="AE55" s="149"/>
+      <c r="AF55" s="149"/>
+      <c r="AG55" s="149"/>
+      <c r="AH55" s="149"/>
+      <c r="AI55" s="149"/>
+      <c r="AJ55" s="149"/>
+    </row>
+    <row r="56" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -18549,11 +19124,21 @@
       <c r="V56" s="105"/>
       <c r="W56" s="105"/>
       <c r="X56" s="105"/>
-      <c r="Y56" s="105"/>
-      <c r="Z56" s="7"/>
-    </row>
-    <row r="57" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="146">
+      <c r="Y56" s="147"/>
+      <c r="Z56" s="148"/>
+      <c r="AA56" s="149"/>
+      <c r="AB56" s="149"/>
+      <c r="AC56" s="149"/>
+      <c r="AD56" s="149"/>
+      <c r="AE56" s="149"/>
+      <c r="AF56" s="149"/>
+      <c r="AG56" s="149"/>
+      <c r="AH56" s="149"/>
+      <c r="AI56" s="149"/>
+      <c r="AJ56" s="149"/>
+    </row>
+    <row r="57" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -18580,11 +19165,21 @@
       <c r="V57" s="105"/>
       <c r="W57" s="105"/>
       <c r="X57" s="105"/>
-      <c r="Y57" s="105"/>
-      <c r="Z57" s="7"/>
-    </row>
-    <row r="58" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="146">
+      <c r="Y57" s="147"/>
+      <c r="Z57" s="148"/>
+      <c r="AA57" s="149"/>
+      <c r="AB57" s="149"/>
+      <c r="AC57" s="149"/>
+      <c r="AD57" s="149"/>
+      <c r="AE57" s="149"/>
+      <c r="AF57" s="149"/>
+      <c r="AG57" s="149"/>
+      <c r="AH57" s="149"/>
+      <c r="AI57" s="149"/>
+      <c r="AJ57" s="149"/>
+    </row>
+    <row r="58" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -18611,11 +19206,21 @@
       <c r="V58" s="105"/>
       <c r="W58" s="105"/>
       <c r="X58" s="105"/>
-      <c r="Y58" s="105"/>
-      <c r="Z58" s="7"/>
-    </row>
-    <row r="59" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="146">
+      <c r="Y58" s="147"/>
+      <c r="Z58" s="148"/>
+      <c r="AA58" s="149"/>
+      <c r="AB58" s="149"/>
+      <c r="AC58" s="149"/>
+      <c r="AD58" s="149"/>
+      <c r="AE58" s="149"/>
+      <c r="AF58" s="149"/>
+      <c r="AG58" s="149"/>
+      <c r="AH58" s="149"/>
+      <c r="AI58" s="149"/>
+      <c r="AJ58" s="149"/>
+    </row>
+    <row r="59" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -18642,11 +19247,21 @@
       <c r="V59" s="105"/>
       <c r="W59" s="105"/>
       <c r="X59" s="105"/>
-      <c r="Y59" s="105"/>
-      <c r="Z59" s="7"/>
-    </row>
-    <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="146">
+      <c r="Y59" s="147"/>
+      <c r="Z59" s="148"/>
+      <c r="AA59" s="149"/>
+      <c r="AB59" s="149"/>
+      <c r="AC59" s="149"/>
+      <c r="AD59" s="149"/>
+      <c r="AE59" s="149"/>
+      <c r="AF59" s="149"/>
+      <c r="AG59" s="149"/>
+      <c r="AH59" s="149"/>
+      <c r="AI59" s="149"/>
+      <c r="AJ59" s="149"/>
+    </row>
+    <row r="60" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -18673,11 +19288,21 @@
       <c r="V60" s="105"/>
       <c r="W60" s="105"/>
       <c r="X60" s="105"/>
-      <c r="Y60" s="105"/>
-      <c r="Z60" s="7"/>
-    </row>
-    <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="146"/>
+      <c r="Y60" s="147"/>
+      <c r="Z60" s="148"/>
+      <c r="AA60" s="149"/>
+      <c r="AB60" s="149"/>
+      <c r="AC60" s="149"/>
+      <c r="AD60" s="149"/>
+      <c r="AE60" s="149"/>
+      <c r="AF60" s="149"/>
+      <c r="AG60" s="149"/>
+      <c r="AH60" s="149"/>
+      <c r="AI60" s="149"/>
+      <c r="AJ60" s="149"/>
+    </row>
+    <row r="61" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="7"/>
       <c r="B61" s="116"/>
       <c r="C61" s="117"/>
       <c r="D61" s="105"/>
@@ -18701,11 +19326,21 @@
       <c r="V61" s="105"/>
       <c r="W61" s="105"/>
       <c r="X61" s="105"/>
-      <c r="Y61" s="105"/>
-      <c r="Z61" s="7"/>
-    </row>
-    <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="146">
+      <c r="Y61" s="147"/>
+      <c r="Z61" s="148"/>
+      <c r="AA61" s="149"/>
+      <c r="AB61" s="149"/>
+      <c r="AC61" s="149"/>
+      <c r="AD61" s="149"/>
+      <c r="AE61" s="149"/>
+      <c r="AF61" s="149"/>
+      <c r="AG61" s="149"/>
+      <c r="AH61" s="149"/>
+      <c r="AI61" s="149"/>
+      <c r="AJ61" s="149"/>
+    </row>
+    <row r="62" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="7">
         <v>58</v>
       </c>
       <c r="B62" s="7"/>
@@ -18731,11 +19366,21 @@
       <c r="V62" s="105"/>
       <c r="W62" s="105"/>
       <c r="X62" s="105"/>
-      <c r="Y62" s="105"/>
-      <c r="Z62" s="7"/>
-    </row>
-    <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="146">
+      <c r="Y62" s="147"/>
+      <c r="Z62" s="148"/>
+      <c r="AA62" s="149"/>
+      <c r="AB62" s="149"/>
+      <c r="AC62" s="149"/>
+      <c r="AD62" s="149"/>
+      <c r="AE62" s="149"/>
+      <c r="AF62" s="149"/>
+      <c r="AG62" s="149"/>
+      <c r="AH62" s="149"/>
+      <c r="AI62" s="149"/>
+      <c r="AJ62" s="149"/>
+    </row>
+    <row r="63" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -18762,11 +19407,21 @@
       <c r="V63" s="105"/>
       <c r="W63" s="105"/>
       <c r="X63" s="105"/>
-      <c r="Y63" s="105"/>
-      <c r="Z63" s="7"/>
-    </row>
-    <row r="64" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="146">
+      <c r="Y63" s="147"/>
+      <c r="Z63" s="148"/>
+      <c r="AA63" s="149"/>
+      <c r="AB63" s="149"/>
+      <c r="AC63" s="149"/>
+      <c r="AD63" s="149"/>
+      <c r="AE63" s="149"/>
+      <c r="AF63" s="149"/>
+      <c r="AG63" s="149"/>
+      <c r="AH63" s="149"/>
+      <c r="AI63" s="149"/>
+      <c r="AJ63" s="149"/>
+    </row>
+    <row r="64" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -18793,11 +19448,21 @@
       <c r="V64" s="105"/>
       <c r="W64" s="105"/>
       <c r="X64" s="105"/>
-      <c r="Y64" s="105"/>
-      <c r="Z64" s="7"/>
-    </row>
-    <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="146">
+      <c r="Y64" s="147"/>
+      <c r="Z64" s="148"/>
+      <c r="AA64" s="149"/>
+      <c r="AB64" s="149"/>
+      <c r="AC64" s="149"/>
+      <c r="AD64" s="149"/>
+      <c r="AE64" s="149"/>
+      <c r="AF64" s="149"/>
+      <c r="AG64" s="149"/>
+      <c r="AH64" s="149"/>
+      <c r="AI64" s="149"/>
+      <c r="AJ64" s="149"/>
+    </row>
+    <row r="65" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -18824,11 +19489,21 @@
       <c r="V65" s="105"/>
       <c r="W65" s="105"/>
       <c r="X65" s="105"/>
-      <c r="Y65" s="105"/>
-      <c r="Z65" s="7"/>
-    </row>
-    <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="146">
+      <c r="Y65" s="147"/>
+      <c r="Z65" s="148"/>
+      <c r="AA65" s="149"/>
+      <c r="AB65" s="149"/>
+      <c r="AC65" s="149"/>
+      <c r="AD65" s="149"/>
+      <c r="AE65" s="149"/>
+      <c r="AF65" s="149"/>
+      <c r="AG65" s="149"/>
+      <c r="AH65" s="149"/>
+      <c r="AI65" s="149"/>
+      <c r="AJ65" s="149"/>
+    </row>
+    <row r="66" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -18855,11 +19530,21 @@
       <c r="V66" s="105"/>
       <c r="W66" s="105"/>
       <c r="X66" s="105"/>
-      <c r="Y66" s="105"/>
-      <c r="Z66" s="7"/>
-    </row>
-    <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="146">
+      <c r="Y66" s="147"/>
+      <c r="Z66" s="148"/>
+      <c r="AA66" s="149"/>
+      <c r="AB66" s="149"/>
+      <c r="AC66" s="149"/>
+      <c r="AD66" s="149"/>
+      <c r="AE66" s="149"/>
+      <c r="AF66" s="149"/>
+      <c r="AG66" s="149"/>
+      <c r="AH66" s="149"/>
+      <c r="AI66" s="149"/>
+      <c r="AJ66" s="149"/>
+    </row>
+    <row r="67" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -18886,11 +19571,21 @@
       <c r="V67" s="105"/>
       <c r="W67" s="105"/>
       <c r="X67" s="105"/>
-      <c r="Y67" s="105"/>
-      <c r="Z67" s="7"/>
-    </row>
-    <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="146">
+      <c r="Y67" s="147"/>
+      <c r="Z67" s="148"/>
+      <c r="AA67" s="149"/>
+      <c r="AB67" s="149"/>
+      <c r="AC67" s="149"/>
+      <c r="AD67" s="149"/>
+      <c r="AE67" s="149"/>
+      <c r="AF67" s="149"/>
+      <c r="AG67" s="149"/>
+      <c r="AH67" s="149"/>
+      <c r="AI67" s="149"/>
+      <c r="AJ67" s="149"/>
+    </row>
+    <row r="68" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -18917,11 +19612,21 @@
       <c r="V68" s="105"/>
       <c r="W68" s="105"/>
       <c r="X68" s="105"/>
-      <c r="Y68" s="105"/>
-      <c r="Z68" s="7"/>
-    </row>
-    <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="146">
+      <c r="Y68" s="147"/>
+      <c r="Z68" s="148"/>
+      <c r="AA68" s="149"/>
+      <c r="AB68" s="149"/>
+      <c r="AC68" s="149"/>
+      <c r="AD68" s="149"/>
+      <c r="AE68" s="149"/>
+      <c r="AF68" s="149"/>
+      <c r="AG68" s="149"/>
+      <c r="AH68" s="149"/>
+      <c r="AI68" s="149"/>
+      <c r="AJ68" s="149"/>
+    </row>
+    <row r="69" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -18948,11 +19653,21 @@
       <c r="V69" s="105"/>
       <c r="W69" s="105"/>
       <c r="X69" s="105"/>
-      <c r="Y69" s="105"/>
-      <c r="Z69" s="7"/>
-    </row>
-    <row r="70" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="146">
+      <c r="Y69" s="147"/>
+      <c r="Z69" s="148"/>
+      <c r="AA69" s="149"/>
+      <c r="AB69" s="149"/>
+      <c r="AC69" s="149"/>
+      <c r="AD69" s="149"/>
+      <c r="AE69" s="149"/>
+      <c r="AF69" s="149"/>
+      <c r="AG69" s="149"/>
+      <c r="AH69" s="149"/>
+      <c r="AI69" s="149"/>
+      <c r="AJ69" s="149"/>
+    </row>
+    <row r="70" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="7">
         <f t="shared" ref="A70:A88" si="1">SUM(A69)+1</f>
         <v>66</v>
       </c>
@@ -18979,11 +19694,21 @@
       <c r="V70" s="105"/>
       <c r="W70" s="105"/>
       <c r="X70" s="105"/>
-      <c r="Y70" s="105"/>
-      <c r="Z70" s="7"/>
-    </row>
-    <row r="71" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="146">
+      <c r="Y70" s="147"/>
+      <c r="Z70" s="148"/>
+      <c r="AA70" s="149"/>
+      <c r="AB70" s="149"/>
+      <c r="AC70" s="149"/>
+      <c r="AD70" s="149"/>
+      <c r="AE70" s="149"/>
+      <c r="AF70" s="149"/>
+      <c r="AG70" s="149"/>
+      <c r="AH70" s="149"/>
+      <c r="AI70" s="149"/>
+      <c r="AJ70" s="149"/>
+    </row>
+    <row r="71" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="7">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
@@ -19010,11 +19735,21 @@
       <c r="V71" s="105"/>
       <c r="W71" s="105"/>
       <c r="X71" s="105"/>
-      <c r="Y71" s="105"/>
-      <c r="Z71" s="7"/>
-    </row>
-    <row r="72" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="146">
+      <c r="Y71" s="147"/>
+      <c r="Z71" s="148"/>
+      <c r="AA71" s="149"/>
+      <c r="AB71" s="149"/>
+      <c r="AC71" s="149"/>
+      <c r="AD71" s="149"/>
+      <c r="AE71" s="149"/>
+      <c r="AF71" s="149"/>
+      <c r="AG71" s="149"/>
+      <c r="AH71" s="149"/>
+      <c r="AI71" s="149"/>
+      <c r="AJ71" s="149"/>
+    </row>
+    <row r="72" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -19041,11 +19776,21 @@
       <c r="V72" s="105"/>
       <c r="W72" s="105"/>
       <c r="X72" s="105"/>
-      <c r="Y72" s="105"/>
-      <c r="Z72" s="7"/>
-    </row>
-    <row r="73" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="146">
+      <c r="Y72" s="147"/>
+      <c r="Z72" s="148"/>
+      <c r="AA72" s="149"/>
+      <c r="AB72" s="149"/>
+      <c r="AC72" s="149"/>
+      <c r="AD72" s="149"/>
+      <c r="AE72" s="149"/>
+      <c r="AF72" s="149"/>
+      <c r="AG72" s="149"/>
+      <c r="AH72" s="149"/>
+      <c r="AI72" s="149"/>
+      <c r="AJ72" s="149"/>
+    </row>
+    <row r="73" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -19072,11 +19817,21 @@
       <c r="V73" s="105"/>
       <c r="W73" s="105"/>
       <c r="X73" s="105"/>
-      <c r="Y73" s="105"/>
-      <c r="Z73" s="7"/>
-    </row>
-    <row r="74" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="146">
+      <c r="Y73" s="147"/>
+      <c r="Z73" s="148"/>
+      <c r="AA73" s="149"/>
+      <c r="AB73" s="149"/>
+      <c r="AC73" s="149"/>
+      <c r="AD73" s="149"/>
+      <c r="AE73" s="149"/>
+      <c r="AF73" s="149"/>
+      <c r="AG73" s="149"/>
+      <c r="AH73" s="149"/>
+      <c r="AI73" s="149"/>
+      <c r="AJ73" s="149"/>
+    </row>
+    <row r="74" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -19103,11 +19858,21 @@
       <c r="V74" s="105"/>
       <c r="W74" s="105"/>
       <c r="X74" s="105"/>
-      <c r="Y74" s="105"/>
-      <c r="Z74" s="7"/>
-    </row>
-    <row r="75" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="146">
+      <c r="Y74" s="147"/>
+      <c r="Z74" s="148"/>
+      <c r="AA74" s="149"/>
+      <c r="AB74" s="149"/>
+      <c r="AC74" s="149"/>
+      <c r="AD74" s="149"/>
+      <c r="AE74" s="149"/>
+      <c r="AF74" s="149"/>
+      <c r="AG74" s="149"/>
+      <c r="AH74" s="149"/>
+      <c r="AI74" s="149"/>
+      <c r="AJ74" s="149"/>
+    </row>
+    <row r="75" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="7">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -19134,11 +19899,21 @@
       <c r="V75" s="105"/>
       <c r="W75" s="105"/>
       <c r="X75" s="105"/>
-      <c r="Y75" s="105"/>
-      <c r="Z75" s="7"/>
-    </row>
-    <row r="76" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="146">
+      <c r="Y75" s="147"/>
+      <c r="Z75" s="148"/>
+      <c r="AA75" s="149"/>
+      <c r="AB75" s="149"/>
+      <c r="AC75" s="149"/>
+      <c r="AD75" s="149"/>
+      <c r="AE75" s="149"/>
+      <c r="AF75" s="149"/>
+      <c r="AG75" s="149"/>
+      <c r="AH75" s="149"/>
+      <c r="AI75" s="149"/>
+      <c r="AJ75" s="149"/>
+    </row>
+    <row r="76" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="7">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -19165,11 +19940,21 @@
       <c r="V76" s="105"/>
       <c r="W76" s="105"/>
       <c r="X76" s="105"/>
-      <c r="Y76" s="105"/>
-      <c r="Z76" s="7"/>
-    </row>
-    <row r="77" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="146">
+      <c r="Y76" s="147"/>
+      <c r="Z76" s="148"/>
+      <c r="AA76" s="149"/>
+      <c r="AB76" s="149"/>
+      <c r="AC76" s="149"/>
+      <c r="AD76" s="149"/>
+      <c r="AE76" s="149"/>
+      <c r="AF76" s="149"/>
+      <c r="AG76" s="149"/>
+      <c r="AH76" s="149"/>
+      <c r="AI76" s="149"/>
+      <c r="AJ76" s="149"/>
+    </row>
+    <row r="77" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="7">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -19196,11 +19981,21 @@
       <c r="V77" s="105"/>
       <c r="W77" s="105"/>
       <c r="X77" s="105"/>
-      <c r="Y77" s="105"/>
-      <c r="Z77" s="7"/>
-    </row>
-    <row r="78" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="146">
+      <c r="Y77" s="147"/>
+      <c r="Z77" s="148"/>
+      <c r="AA77" s="149"/>
+      <c r="AB77" s="149"/>
+      <c r="AC77" s="149"/>
+      <c r="AD77" s="149"/>
+      <c r="AE77" s="149"/>
+      <c r="AF77" s="149"/>
+      <c r="AG77" s="149"/>
+      <c r="AH77" s="149"/>
+      <c r="AI77" s="149"/>
+      <c r="AJ77" s="149"/>
+    </row>
+    <row r="78" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="7">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -19227,11 +20022,21 @@
       <c r="V78" s="105"/>
       <c r="W78" s="105"/>
       <c r="X78" s="105"/>
-      <c r="Y78" s="105"/>
-      <c r="Z78" s="7"/>
-    </row>
-    <row r="79" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="146">
+      <c r="Y78" s="147"/>
+      <c r="Z78" s="148"/>
+      <c r="AA78" s="149"/>
+      <c r="AB78" s="149"/>
+      <c r="AC78" s="149"/>
+      <c r="AD78" s="149"/>
+      <c r="AE78" s="149"/>
+      <c r="AF78" s="149"/>
+      <c r="AG78" s="149"/>
+      <c r="AH78" s="149"/>
+      <c r="AI78" s="149"/>
+      <c r="AJ78" s="149"/>
+    </row>
+    <row r="79" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="7">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -19258,11 +20063,21 @@
       <c r="V79" s="105"/>
       <c r="W79" s="105"/>
       <c r="X79" s="105"/>
-      <c r="Y79" s="105"/>
-      <c r="Z79" s="7"/>
-    </row>
-    <row r="80" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="146">
+      <c r="Y79" s="147"/>
+      <c r="Z79" s="148"/>
+      <c r="AA79" s="149"/>
+      <c r="AB79" s="149"/>
+      <c r="AC79" s="149"/>
+      <c r="AD79" s="149"/>
+      <c r="AE79" s="149"/>
+      <c r="AF79" s="149"/>
+      <c r="AG79" s="149"/>
+      <c r="AH79" s="149"/>
+      <c r="AI79" s="149"/>
+      <c r="AJ79" s="149"/>
+    </row>
+    <row r="80" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="7">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -19289,11 +20104,21 @@
       <c r="V80" s="105"/>
       <c r="W80" s="105"/>
       <c r="X80" s="105"/>
-      <c r="Y80" s="105"/>
-      <c r="Z80" s="7"/>
-    </row>
-    <row r="81" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="146">
+      <c r="Y80" s="147"/>
+      <c r="Z80" s="148"/>
+      <c r="AA80" s="149"/>
+      <c r="AB80" s="149"/>
+      <c r="AC80" s="149"/>
+      <c r="AD80" s="149"/>
+      <c r="AE80" s="149"/>
+      <c r="AF80" s="149"/>
+      <c r="AG80" s="149"/>
+      <c r="AH80" s="149"/>
+      <c r="AI80" s="149"/>
+      <c r="AJ80" s="149"/>
+    </row>
+    <row r="81" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="7">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -19320,11 +20145,21 @@
       <c r="V81" s="105"/>
       <c r="W81" s="105"/>
       <c r="X81" s="105"/>
-      <c r="Y81" s="105"/>
-      <c r="Z81" s="7"/>
-    </row>
-    <row r="82" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="146">
+      <c r="Y81" s="147"/>
+      <c r="Z81" s="148"/>
+      <c r="AA81" s="149"/>
+      <c r="AB81" s="149"/>
+      <c r="AC81" s="149"/>
+      <c r="AD81" s="149"/>
+      <c r="AE81" s="149"/>
+      <c r="AF81" s="149"/>
+      <c r="AG81" s="149"/>
+      <c r="AH81" s="149"/>
+      <c r="AI81" s="149"/>
+      <c r="AJ81" s="149"/>
+    </row>
+    <row r="82" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="7">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -19351,11 +20186,21 @@
       <c r="V82" s="105"/>
       <c r="W82" s="105"/>
       <c r="X82" s="105"/>
-      <c r="Y82" s="105"/>
-      <c r="Z82" s="7"/>
-    </row>
-    <row r="83" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="146">
+      <c r="Y82" s="147"/>
+      <c r="Z82" s="148"/>
+      <c r="AA82" s="149"/>
+      <c r="AB82" s="149"/>
+      <c r="AC82" s="149"/>
+      <c r="AD82" s="149"/>
+      <c r="AE82" s="149"/>
+      <c r="AF82" s="149"/>
+      <c r="AG82" s="149"/>
+      <c r="AH82" s="149"/>
+      <c r="AI82" s="149"/>
+      <c r="AJ82" s="149"/>
+    </row>
+    <row r="83" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="7">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -19382,11 +20227,21 @@
       <c r="V83" s="105"/>
       <c r="W83" s="105"/>
       <c r="X83" s="105"/>
-      <c r="Y83" s="105"/>
-      <c r="Z83" s="7"/>
-    </row>
-    <row r="84" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="146">
+      <c r="Y83" s="147"/>
+      <c r="Z83" s="148"/>
+      <c r="AA83" s="149"/>
+      <c r="AB83" s="149"/>
+      <c r="AC83" s="149"/>
+      <c r="AD83" s="149"/>
+      <c r="AE83" s="149"/>
+      <c r="AF83" s="149"/>
+      <c r="AG83" s="149"/>
+      <c r="AH83" s="149"/>
+      <c r="AI83" s="149"/>
+      <c r="AJ83" s="149"/>
+    </row>
+    <row r="84" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="7">
         <f>SUM(A83)+1</f>
         <v>80</v>
       </c>
@@ -19413,11 +20268,21 @@
       <c r="V84" s="105"/>
       <c r="W84" s="105"/>
       <c r="X84" s="105"/>
-      <c r="Y84" s="105"/>
-      <c r="Z84" s="7"/>
-    </row>
-    <row r="85" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="146">
+      <c r="Y84" s="147"/>
+      <c r="Z84" s="148"/>
+      <c r="AA84" s="149"/>
+      <c r="AB84" s="149"/>
+      <c r="AC84" s="149"/>
+      <c r="AD84" s="149"/>
+      <c r="AE84" s="149"/>
+      <c r="AF84" s="149"/>
+      <c r="AG84" s="149"/>
+      <c r="AH84" s="149"/>
+      <c r="AI84" s="149"/>
+      <c r="AJ84" s="149"/>
+    </row>
+    <row r="85" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="7">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -19444,11 +20309,21 @@
       <c r="V85" s="105"/>
       <c r="W85" s="105"/>
       <c r="X85" s="105"/>
-      <c r="Y85" s="105"/>
-      <c r="Z85" s="7"/>
-    </row>
-    <row r="86" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="146">
+      <c r="Y85" s="147"/>
+      <c r="Z85" s="148"/>
+      <c r="AA85" s="149"/>
+      <c r="AB85" s="149"/>
+      <c r="AC85" s="149"/>
+      <c r="AD85" s="149"/>
+      <c r="AE85" s="149"/>
+      <c r="AF85" s="149"/>
+      <c r="AG85" s="149"/>
+      <c r="AH85" s="149"/>
+      <c r="AI85" s="149"/>
+      <c r="AJ85" s="149"/>
+    </row>
+    <row r="86" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="7">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -19475,11 +20350,21 @@
       <c r="V86" s="105"/>
       <c r="W86" s="105"/>
       <c r="X86" s="105"/>
-      <c r="Y86" s="105"/>
-      <c r="Z86" s="7"/>
-    </row>
-    <row r="87" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="146">
+      <c r="Y86" s="147"/>
+      <c r="Z86" s="148"/>
+      <c r="AA86" s="149"/>
+      <c r="AB86" s="149"/>
+      <c r="AC86" s="149"/>
+      <c r="AD86" s="149"/>
+      <c r="AE86" s="149"/>
+      <c r="AF86" s="149"/>
+      <c r="AG86" s="149"/>
+      <c r="AH86" s="149"/>
+      <c r="AI86" s="149"/>
+      <c r="AJ86" s="149"/>
+    </row>
+    <row r="87" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="7">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -19506,11 +20391,21 @@
       <c r="V87" s="105"/>
       <c r="W87" s="105"/>
       <c r="X87" s="105"/>
-      <c r="Y87" s="105"/>
-      <c r="Z87" s="7"/>
-    </row>
-    <row r="88" spans="1:26" ht="21" customHeight="1">
-      <c r="A88" s="146">
+      <c r="Y87" s="147"/>
+      <c r="Z87" s="148"/>
+      <c r="AA87" s="149"/>
+      <c r="AB87" s="149"/>
+      <c r="AC87" s="149"/>
+      <c r="AD87" s="149"/>
+      <c r="AE87" s="149"/>
+      <c r="AF87" s="149"/>
+      <c r="AG87" s="149"/>
+      <c r="AH87" s="149"/>
+      <c r="AI87" s="149"/>
+      <c r="AJ87" s="149"/>
+    </row>
+    <row r="88" spans="1:36" ht="21" customHeight="1">
+      <c r="A88" s="7">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -19537,11 +20432,21 @@
       <c r="V88" s="105"/>
       <c r="W88" s="105"/>
       <c r="X88" s="105"/>
-      <c r="Y88" s="105"/>
-      <c r="Z88" s="7"/>
-    </row>
-    <row r="89" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="148">
+      <c r="Y88" s="147"/>
+      <c r="Z88" s="148"/>
+      <c r="AA88" s="149"/>
+      <c r="AB88" s="149"/>
+      <c r="AC88" s="149"/>
+      <c r="AD88" s="149"/>
+      <c r="AE88" s="149"/>
+      <c r="AF88" s="149"/>
+      <c r="AG88" s="149"/>
+      <c r="AH88" s="149"/>
+      <c r="AI88" s="149"/>
+      <c r="AJ88" s="149"/>
+    </row>
+    <row r="89" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="111">
         <v>85</v>
       </c>
       <c r="B89" s="7"/>
@@ -19567,11 +20472,21 @@
       <c r="V89" s="105"/>
       <c r="W89" s="105"/>
       <c r="X89" s="105"/>
-      <c r="Y89" s="105"/>
-      <c r="Z89" s="7"/>
-    </row>
-    <row r="90" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="148">
+      <c r="Y89" s="147"/>
+      <c r="Z89" s="148"/>
+      <c r="AA89" s="149"/>
+      <c r="AB89" s="149"/>
+      <c r="AC89" s="149"/>
+      <c r="AD89" s="149"/>
+      <c r="AE89" s="149"/>
+      <c r="AF89" s="149"/>
+      <c r="AG89" s="149"/>
+      <c r="AH89" s="149"/>
+      <c r="AI89" s="149"/>
+      <c r="AJ89" s="149"/>
+    </row>
+    <row r="90" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="111">
         <f>SUM(A89)+1</f>
         <v>86</v>
       </c>
@@ -19598,11 +20513,21 @@
       <c r="V90" s="105"/>
       <c r="W90" s="105"/>
       <c r="X90" s="105"/>
-      <c r="Y90" s="105"/>
-      <c r="Z90" s="7"/>
-    </row>
-    <row r="91" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="148">
+      <c r="Y90" s="147"/>
+      <c r="Z90" s="148"/>
+      <c r="AA90" s="149"/>
+      <c r="AB90" s="149"/>
+      <c r="AC90" s="149"/>
+      <c r="AD90" s="149"/>
+      <c r="AE90" s="149"/>
+      <c r="AF90" s="149"/>
+      <c r="AG90" s="149"/>
+      <c r="AH90" s="149"/>
+      <c r="AI90" s="149"/>
+      <c r="AJ90" s="149"/>
+    </row>
+    <row r="91" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="111">
         <f t="shared" ref="A91:A99" si="2">SUM(A90)+1</f>
         <v>87</v>
       </c>
@@ -19629,11 +20554,21 @@
       <c r="V91" s="105"/>
       <c r="W91" s="105"/>
       <c r="X91" s="105"/>
-      <c r="Y91" s="105"/>
-      <c r="Z91" s="7"/>
-    </row>
-    <row r="92" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="148">
+      <c r="Y91" s="147"/>
+      <c r="Z91" s="148"/>
+      <c r="AA91" s="149"/>
+      <c r="AB91" s="149"/>
+      <c r="AC91" s="149"/>
+      <c r="AD91" s="149"/>
+      <c r="AE91" s="149"/>
+      <c r="AF91" s="149"/>
+      <c r="AG91" s="149"/>
+      <c r="AH91" s="149"/>
+      <c r="AI91" s="149"/>
+      <c r="AJ91" s="149"/>
+    </row>
+    <row r="92" spans="1:36" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="111">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
@@ -19660,11 +20595,21 @@
       <c r="V92" s="105"/>
       <c r="W92" s="105"/>
       <c r="X92" s="105"/>
-      <c r="Y92" s="105"/>
-      <c r="Z92" s="7"/>
-    </row>
-    <row r="93" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="148">
+      <c r="Y92" s="147"/>
+      <c r="Z92" s="148"/>
+      <c r="AA92" s="148"/>
+      <c r="AB92" s="148"/>
+      <c r="AC92" s="148"/>
+      <c r="AD92" s="148"/>
+      <c r="AE92" s="148"/>
+      <c r="AF92" s="148"/>
+      <c r="AG92" s="148"/>
+      <c r="AH92" s="148"/>
+      <c r="AI92" s="148"/>
+      <c r="AJ92" s="148"/>
+    </row>
+    <row r="93" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="111">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
@@ -19691,11 +20636,21 @@
       <c r="V93" s="105"/>
       <c r="W93" s="105"/>
       <c r="X93" s="105"/>
-      <c r="Y93" s="105"/>
-      <c r="Z93" s="7"/>
-    </row>
-    <row r="94" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="148">
+      <c r="Y93" s="147"/>
+      <c r="Z93" s="148"/>
+      <c r="AA93" s="149"/>
+      <c r="AB93" s="149"/>
+      <c r="AC93" s="149"/>
+      <c r="AD93" s="149"/>
+      <c r="AE93" s="149"/>
+      <c r="AF93" s="149"/>
+      <c r="AG93" s="149"/>
+      <c r="AH93" s="149"/>
+      <c r="AI93" s="149"/>
+      <c r="AJ93" s="149"/>
+    </row>
+    <row r="94" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="111">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -19722,11 +20677,21 @@
       <c r="V94" s="105"/>
       <c r="W94" s="105"/>
       <c r="X94" s="105"/>
-      <c r="Y94" s="105"/>
-      <c r="Z94" s="7"/>
-    </row>
-    <row r="95" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="148">
+      <c r="Y94" s="147"/>
+      <c r="Z94" s="148"/>
+      <c r="AA94" s="149"/>
+      <c r="AB94" s="149"/>
+      <c r="AC94" s="149"/>
+      <c r="AD94" s="149"/>
+      <c r="AE94" s="149"/>
+      <c r="AF94" s="149"/>
+      <c r="AG94" s="149"/>
+      <c r="AH94" s="149"/>
+      <c r="AI94" s="149"/>
+      <c r="AJ94" s="149"/>
+    </row>
+    <row r="95" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="111">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -19753,11 +20718,21 @@
       <c r="V95" s="105"/>
       <c r="W95" s="105"/>
       <c r="X95" s="105"/>
-      <c r="Y95" s="105"/>
-      <c r="Z95" s="7"/>
-    </row>
-    <row r="96" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="148">
+      <c r="Y95" s="147"/>
+      <c r="Z95" s="148"/>
+      <c r="AA95" s="149"/>
+      <c r="AB95" s="149"/>
+      <c r="AC95" s="149"/>
+      <c r="AD95" s="149"/>
+      <c r="AE95" s="149"/>
+      <c r="AF95" s="149"/>
+      <c r="AG95" s="149"/>
+      <c r="AH95" s="149"/>
+      <c r="AI95" s="149"/>
+      <c r="AJ95" s="149"/>
+    </row>
+    <row r="96" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="111">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
@@ -19784,11 +20759,21 @@
       <c r="V96" s="105"/>
       <c r="W96" s="105"/>
       <c r="X96" s="105"/>
-      <c r="Y96" s="105"/>
-      <c r="Z96" s="7"/>
-    </row>
-    <row r="97" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="148">
+      <c r="Y96" s="147"/>
+      <c r="Z96" s="148"/>
+      <c r="AA96" s="149"/>
+      <c r="AB96" s="149"/>
+      <c r="AC96" s="149"/>
+      <c r="AD96" s="149"/>
+      <c r="AE96" s="149"/>
+      <c r="AF96" s="149"/>
+      <c r="AG96" s="149"/>
+      <c r="AH96" s="149"/>
+      <c r="AI96" s="149"/>
+      <c r="AJ96" s="149"/>
+    </row>
+    <row r="97" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="111">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
@@ -19815,11 +20800,21 @@
       <c r="V97" s="105"/>
       <c r="W97" s="105"/>
       <c r="X97" s="105"/>
-      <c r="Y97" s="105"/>
-      <c r="Z97" s="7"/>
-    </row>
-    <row r="98" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="148">
+      <c r="Y97" s="147"/>
+      <c r="Z97" s="148"/>
+      <c r="AA97" s="149"/>
+      <c r="AB97" s="149"/>
+      <c r="AC97" s="149"/>
+      <c r="AD97" s="149"/>
+      <c r="AE97" s="149"/>
+      <c r="AF97" s="149"/>
+      <c r="AG97" s="149"/>
+      <c r="AH97" s="149"/>
+      <c r="AI97" s="149"/>
+      <c r="AJ97" s="149"/>
+    </row>
+    <row r="98" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="111">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
@@ -19846,11 +20841,21 @@
       <c r="V98" s="105"/>
       <c r="W98" s="105"/>
       <c r="X98" s="105"/>
-      <c r="Y98" s="105"/>
-      <c r="Z98" s="7"/>
-    </row>
-    <row r="99" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="148">
+      <c r="Y98" s="147"/>
+      <c r="Z98" s="148"/>
+      <c r="AA98" s="149"/>
+      <c r="AB98" s="149"/>
+      <c r="AC98" s="149"/>
+      <c r="AD98" s="149"/>
+      <c r="AE98" s="149"/>
+      <c r="AF98" s="149"/>
+      <c r="AG98" s="149"/>
+      <c r="AH98" s="149"/>
+      <c r="AI98" s="149"/>
+      <c r="AJ98" s="149"/>
+    </row>
+    <row r="99" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="111">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
@@ -19877,11 +20882,21 @@
       <c r="V99" s="105"/>
       <c r="W99" s="105"/>
       <c r="X99" s="105"/>
-      <c r="Y99" s="105"/>
-      <c r="Z99" s="7"/>
-    </row>
-    <row r="100" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="148">
+      <c r="Y99" s="147"/>
+      <c r="Z99" s="148"/>
+      <c r="AA99" s="149"/>
+      <c r="AB99" s="149"/>
+      <c r="AC99" s="149"/>
+      <c r="AD99" s="149"/>
+      <c r="AE99" s="149"/>
+      <c r="AF99" s="149"/>
+      <c r="AG99" s="149"/>
+      <c r="AH99" s="149"/>
+      <c r="AI99" s="149"/>
+      <c r="AJ99" s="149"/>
+    </row>
+    <row r="100" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="111">
         <f>SUM(A99)+1</f>
         <v>96</v>
       </c>
@@ -19908,11 +20923,21 @@
       <c r="V100" s="105"/>
       <c r="W100" s="105"/>
       <c r="X100" s="105"/>
-      <c r="Y100" s="105"/>
-      <c r="Z100" s="7"/>
-    </row>
-    <row r="101" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="148">
+      <c r="Y100" s="147"/>
+      <c r="Z100" s="148"/>
+      <c r="AA100" s="149"/>
+      <c r="AB100" s="149"/>
+      <c r="AC100" s="149"/>
+      <c r="AD100" s="149"/>
+      <c r="AE100" s="149"/>
+      <c r="AF100" s="149"/>
+      <c r="AG100" s="149"/>
+      <c r="AH100" s="149"/>
+      <c r="AI100" s="149"/>
+      <c r="AJ100" s="149"/>
+    </row>
+    <row r="101" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="111">
         <v>97</v>
       </c>
       <c r="B101" s="7"/>
@@ -19938,11 +20963,21 @@
       <c r="V101" s="105"/>
       <c r="W101" s="105"/>
       <c r="X101" s="105"/>
-      <c r="Y101" s="105"/>
-      <c r="Z101" s="7"/>
-    </row>
-    <row r="102" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="148">
+      <c r="Y101" s="147"/>
+      <c r="Z101" s="148"/>
+      <c r="AA101" s="149"/>
+      <c r="AB101" s="149"/>
+      <c r="AC101" s="149"/>
+      <c r="AD101" s="149"/>
+      <c r="AE101" s="149"/>
+      <c r="AF101" s="149"/>
+      <c r="AG101" s="149"/>
+      <c r="AH101" s="149"/>
+      <c r="AI101" s="149"/>
+      <c r="AJ101" s="149"/>
+    </row>
+    <row r="102" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="111">
         <f t="shared" ref="A102:A114" si="3">SUM(A101)+1</f>
         <v>98</v>
       </c>
@@ -19969,11 +21004,21 @@
       <c r="V102" s="105"/>
       <c r="W102" s="105"/>
       <c r="X102" s="105"/>
-      <c r="Y102" s="105"/>
-      <c r="Z102" s="7"/>
-    </row>
-    <row r="103" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A103" s="148">
+      <c r="Y102" s="147"/>
+      <c r="Z102" s="148"/>
+      <c r="AA102" s="149"/>
+      <c r="AB102" s="149"/>
+      <c r="AC102" s="149"/>
+      <c r="AD102" s="149"/>
+      <c r="AE102" s="149"/>
+      <c r="AF102" s="149"/>
+      <c r="AG102" s="149"/>
+      <c r="AH102" s="149"/>
+      <c r="AI102" s="149"/>
+      <c r="AJ102" s="149"/>
+    </row>
+    <row r="103" spans="1:36" ht="18.75" customHeight="1">
+      <c r="A103" s="111">
         <v>100</v>
       </c>
       <c r="B103" s="7"/>
@@ -19999,11 +21044,21 @@
       <c r="V103" s="105"/>
       <c r="W103" s="105"/>
       <c r="X103" s="105"/>
-      <c r="Y103" s="105"/>
-      <c r="Z103" s="7"/>
-    </row>
-    <row r="104" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="148">
+      <c r="Y103" s="147"/>
+      <c r="Z103" s="148"/>
+      <c r="AA103" s="149"/>
+      <c r="AB103" s="149"/>
+      <c r="AC103" s="149"/>
+      <c r="AD103" s="149"/>
+      <c r="AE103" s="149"/>
+      <c r="AF103" s="149"/>
+      <c r="AG103" s="149"/>
+      <c r="AH103" s="149"/>
+      <c r="AI103" s="149"/>
+      <c r="AJ103" s="149"/>
+    </row>
+    <row r="104" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="111">
         <v>101</v>
       </c>
       <c r="B104" s="7"/>
@@ -20029,11 +21084,21 @@
       <c r="V104" s="105"/>
       <c r="W104" s="105"/>
       <c r="X104" s="105"/>
-      <c r="Y104" s="105"/>
-      <c r="Z104" s="7"/>
-    </row>
-    <row r="105" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="148">
+      <c r="Y104" s="147"/>
+      <c r="Z104" s="148"/>
+      <c r="AA104" s="149"/>
+      <c r="AB104" s="149"/>
+      <c r="AC104" s="149"/>
+      <c r="AD104" s="149"/>
+      <c r="AE104" s="149"/>
+      <c r="AF104" s="149"/>
+      <c r="AG104" s="149"/>
+      <c r="AH104" s="149"/>
+      <c r="AI104" s="149"/>
+      <c r="AJ104" s="149"/>
+    </row>
+    <row r="105" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="111">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
@@ -20060,11 +21125,21 @@
       <c r="V105" s="105"/>
       <c r="W105" s="105"/>
       <c r="X105" s="105"/>
-      <c r="Y105" s="105"/>
-      <c r="Z105" s="7"/>
-    </row>
-    <row r="106" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="148">
+      <c r="Y105" s="147"/>
+      <c r="Z105" s="148"/>
+      <c r="AA105" s="149"/>
+      <c r="AB105" s="149"/>
+      <c r="AC105" s="149"/>
+      <c r="AD105" s="149"/>
+      <c r="AE105" s="149"/>
+      <c r="AF105" s="149"/>
+      <c r="AG105" s="149"/>
+      <c r="AH105" s="149"/>
+      <c r="AI105" s="149"/>
+      <c r="AJ105" s="149"/>
+    </row>
+    <row r="106" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="111">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
@@ -20091,11 +21166,21 @@
       <c r="V106" s="105"/>
       <c r="W106" s="105"/>
       <c r="X106" s="105"/>
-      <c r="Y106" s="105"/>
-      <c r="Z106" s="7"/>
-    </row>
-    <row r="107" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="148">
+      <c r="Y106" s="147"/>
+      <c r="Z106" s="148"/>
+      <c r="AA106" s="149"/>
+      <c r="AB106" s="149"/>
+      <c r="AC106" s="149"/>
+      <c r="AD106" s="149"/>
+      <c r="AE106" s="149"/>
+      <c r="AF106" s="149"/>
+      <c r="AG106" s="149"/>
+      <c r="AH106" s="149"/>
+      <c r="AI106" s="149"/>
+      <c r="AJ106" s="149"/>
+    </row>
+    <row r="107" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="111">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
@@ -20122,11 +21207,21 @@
       <c r="V107" s="105"/>
       <c r="W107" s="105"/>
       <c r="X107" s="105"/>
-      <c r="Y107" s="105"/>
-      <c r="Z107" s="7"/>
-    </row>
-    <row r="108" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="148">
+      <c r="Y107" s="147"/>
+      <c r="Z107" s="148"/>
+      <c r="AA107" s="149"/>
+      <c r="AB107" s="149"/>
+      <c r="AC107" s="149"/>
+      <c r="AD107" s="149"/>
+      <c r="AE107" s="149"/>
+      <c r="AF107" s="149"/>
+      <c r="AG107" s="149"/>
+      <c r="AH107" s="149"/>
+      <c r="AI107" s="149"/>
+      <c r="AJ107" s="149"/>
+    </row>
+    <row r="108" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="111">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
@@ -20153,11 +21248,21 @@
       <c r="V108" s="105"/>
       <c r="W108" s="105"/>
       <c r="X108" s="105"/>
-      <c r="Y108" s="105"/>
-      <c r="Z108" s="7"/>
-    </row>
-    <row r="109" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="148">
+      <c r="Y108" s="147"/>
+      <c r="Z108" s="148"/>
+      <c r="AA108" s="149"/>
+      <c r="AB108" s="149"/>
+      <c r="AC108" s="149"/>
+      <c r="AD108" s="149"/>
+      <c r="AE108" s="149"/>
+      <c r="AF108" s="149"/>
+      <c r="AG108" s="149"/>
+      <c r="AH108" s="149"/>
+      <c r="AI108" s="149"/>
+      <c r="AJ108" s="149"/>
+    </row>
+    <row r="109" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="111">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
@@ -20184,11 +21289,21 @@
       <c r="V109" s="105"/>
       <c r="W109" s="105"/>
       <c r="X109" s="105"/>
-      <c r="Y109" s="105"/>
-      <c r="Z109" s="7"/>
-    </row>
-    <row r="110" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="148">
+      <c r="Y109" s="147"/>
+      <c r="Z109" s="148"/>
+      <c r="AA109" s="149"/>
+      <c r="AB109" s="149"/>
+      <c r="AC109" s="149"/>
+      <c r="AD109" s="149"/>
+      <c r="AE109" s="149"/>
+      <c r="AF109" s="149"/>
+      <c r="AG109" s="149"/>
+      <c r="AH109" s="149"/>
+      <c r="AI109" s="149"/>
+      <c r="AJ109" s="149"/>
+    </row>
+    <row r="110" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="111">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
@@ -20215,11 +21330,21 @@
       <c r="V110" s="105"/>
       <c r="W110" s="105"/>
       <c r="X110" s="105"/>
-      <c r="Y110" s="105"/>
-      <c r="Z110" s="7"/>
-    </row>
-    <row r="111" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="148">
+      <c r="Y110" s="147"/>
+      <c r="Z110" s="148"/>
+      <c r="AA110" s="149"/>
+      <c r="AB110" s="149"/>
+      <c r="AC110" s="149"/>
+      <c r="AD110" s="149"/>
+      <c r="AE110" s="149"/>
+      <c r="AF110" s="149"/>
+      <c r="AG110" s="149"/>
+      <c r="AH110" s="149"/>
+      <c r="AI110" s="149"/>
+      <c r="AJ110" s="149"/>
+    </row>
+    <row r="111" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="111">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
@@ -20246,11 +21371,21 @@
       <c r="V111" s="105"/>
       <c r="W111" s="105"/>
       <c r="X111" s="105"/>
-      <c r="Y111" s="105"/>
-      <c r="Z111" s="7"/>
-    </row>
-    <row r="112" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="148">
+      <c r="Y111" s="147"/>
+      <c r="Z111" s="148"/>
+      <c r="AA111" s="149"/>
+      <c r="AB111" s="149"/>
+      <c r="AC111" s="149"/>
+      <c r="AD111" s="149"/>
+      <c r="AE111" s="149"/>
+      <c r="AF111" s="149"/>
+      <c r="AG111" s="149"/>
+      <c r="AH111" s="149"/>
+      <c r="AI111" s="149"/>
+      <c r="AJ111" s="149"/>
+    </row>
+    <row r="112" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="111">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
@@ -20277,11 +21412,21 @@
       <c r="V112" s="105"/>
       <c r="W112" s="105"/>
       <c r="X112" s="105"/>
-      <c r="Y112" s="105"/>
-      <c r="Z112" s="7"/>
-    </row>
-    <row r="113" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="148">
+      <c r="Y112" s="147"/>
+      <c r="Z112" s="148"/>
+      <c r="AA112" s="149"/>
+      <c r="AB112" s="149"/>
+      <c r="AC112" s="149"/>
+      <c r="AD112" s="149"/>
+      <c r="AE112" s="149"/>
+      <c r="AF112" s="149"/>
+      <c r="AG112" s="149"/>
+      <c r="AH112" s="149"/>
+      <c r="AI112" s="149"/>
+      <c r="AJ112" s="149"/>
+    </row>
+    <row r="113" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="111">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
@@ -20308,11 +21453,21 @@
       <c r="V113" s="106"/>
       <c r="W113" s="106"/>
       <c r="X113" s="106"/>
-      <c r="Y113" s="106"/>
-      <c r="Z113" s="7"/>
-    </row>
-    <row r="114" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="148">
+      <c r="Y113" s="150"/>
+      <c r="Z113" s="148"/>
+      <c r="AA113" s="149"/>
+      <c r="AB113" s="149"/>
+      <c r="AC113" s="149"/>
+      <c r="AD113" s="149"/>
+      <c r="AE113" s="149"/>
+      <c r="AF113" s="149"/>
+      <c r="AG113" s="149"/>
+      <c r="AH113" s="149"/>
+      <c r="AI113" s="149"/>
+      <c r="AJ113" s="149"/>
+    </row>
+    <row r="114" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="111">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
@@ -20339,11 +21494,21 @@
       <c r="V114" s="106"/>
       <c r="W114" s="106"/>
       <c r="X114" s="106"/>
-      <c r="Y114" s="106"/>
-      <c r="Z114" s="7"/>
-    </row>
-    <row r="115" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="148">
+      <c r="Y114" s="150"/>
+      <c r="Z114" s="148"/>
+      <c r="AA114" s="149"/>
+      <c r="AB114" s="149"/>
+      <c r="AC114" s="149"/>
+      <c r="AD114" s="149"/>
+      <c r="AE114" s="149"/>
+      <c r="AF114" s="149"/>
+      <c r="AG114" s="149"/>
+      <c r="AH114" s="149"/>
+      <c r="AI114" s="149"/>
+      <c r="AJ114" s="149"/>
+    </row>
+    <row r="115" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="111">
         <v>109</v>
       </c>
       <c r="B115" s="111"/>
@@ -20369,11 +21534,21 @@
       <c r="V115" s="106"/>
       <c r="W115" s="106"/>
       <c r="X115" s="106"/>
-      <c r="Y115" s="106"/>
-      <c r="Z115" s="7"/>
-    </row>
-    <row r="116" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="148">
+      <c r="Y115" s="150"/>
+      <c r="Z115" s="148"/>
+      <c r="AA115" s="149"/>
+      <c r="AB115" s="149"/>
+      <c r="AC115" s="149"/>
+      <c r="AD115" s="149"/>
+      <c r="AE115" s="149"/>
+      <c r="AF115" s="149"/>
+      <c r="AG115" s="149"/>
+      <c r="AH115" s="149"/>
+      <c r="AI115" s="149"/>
+      <c r="AJ115" s="149"/>
+    </row>
+    <row r="116" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="111">
         <v>100</v>
       </c>
       <c r="B116" s="116"/>
@@ -20399,18 +21574,28 @@
       <c r="V116" s="106"/>
       <c r="W116" s="106"/>
       <c r="X116" s="106"/>
-      <c r="Y116" s="106"/>
-      <c r="Z116" s="7"/>
-    </row>
-    <row r="117" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="Y116" s="150"/>
+      <c r="Z116" s="148"/>
+      <c r="AA116" s="149"/>
+      <c r="AB116" s="149"/>
+      <c r="AC116" s="149"/>
+      <c r="AD116" s="149"/>
+      <c r="AE116" s="149"/>
+      <c r="AF116" s="149"/>
+      <c r="AG116" s="149"/>
+      <c r="AH116" s="149"/>
+      <c r="AI116" s="149"/>
+      <c r="AJ116" s="149"/>
+    </row>
+    <row r="117" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="Z117" s="6"/>
     </row>
-    <row r="118" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="H118" s="6"/>
       <c r="R118" s="6"/>
       <c r="Z118" s="6"/>
     </row>
-    <row r="119" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="H119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -20420,7 +21605,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
     </row>
-    <row r="120" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="H120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
@@ -20429,7 +21614,7 @@
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
     </row>
-    <row r="121" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -20437,7 +21622,7 @@
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
     </row>
-    <row r="122" spans="1:26" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
